--- a/Demandas_y_Asignacion.xlsx
+++ b/Demandas_y_Asignacion.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
   <si>
     <t>Stock</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Demanda</t>
+  </si>
+  <si>
+    <t>Diferencia</t>
   </si>
 </sst>
 </file>
@@ -164,11 +167,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -183,7 +183,44 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -473,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:L27"/>
+  <dimension ref="B1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -487,54 +524,54 @@
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="16" customWidth="1"/>
     <col min="7" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
-      <c r="D1" s="4" t="s">
+    <row r="1" spans="2:11">
+      <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="1"/>
-      <c r="K1" s="5" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="J1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="2:12">
-      <c r="B2" s="2" t="s">
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:11">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -547,14 +584,18 @@
       <c r="E3">
         <v>9000</v>
       </c>
-      <c r="K3" t="s">
+      <c r="I3">
+        <f>D3-E3</f>
+        <v>10800</v>
+      </c>
+      <c r="J3" t="s">
         <v>2</v>
       </c>
-      <c r="L3">
+      <c r="K3">
         <v>20000</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:11">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -567,14 +608,18 @@
       <c r="E4">
         <v>193536</v>
       </c>
-      <c r="K4" t="s">
+      <c r="I4">
+        <f t="shared" ref="I4:I13" si="0">D4-E4</f>
+        <v>-134784</v>
+      </c>
+      <c r="J4" t="s">
         <v>3</v>
       </c>
-      <c r="L4">
+      <c r="K4">
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:11">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -587,14 +632,18 @@
       <c r="E5">
         <v>1200</v>
       </c>
-      <c r="K5" t="s">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="J5" t="s">
         <v>4</v>
       </c>
-      <c r="L5">
+      <c r="K5">
         <v>9000</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:11">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -607,14 +656,18 @@
       <c r="E6">
         <v>69120</v>
       </c>
-      <c r="K6" t="s">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>-48960</v>
+      </c>
+      <c r="J6" t="s">
         <v>5</v>
       </c>
-      <c r="L6">
+      <c r="K6">
         <v>9600</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:11">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -627,14 +680,18 @@
       <c r="E7">
         <v>1848</v>
       </c>
-      <c r="K7" t="s">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>2688</v>
+      </c>
+      <c r="J7" t="s">
         <v>6</v>
       </c>
-      <c r="L7">
+      <c r="K7">
         <v>580</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:11">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -647,14 +704,18 @@
       <c r="E8">
         <v>34560</v>
       </c>
-      <c r="K8" t="s">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>-24840</v>
+      </c>
+      <c r="J8" t="s">
         <v>7</v>
       </c>
-      <c r="L8">
+      <c r="K8">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:11">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -667,14 +728,18 @@
       <c r="E9">
         <v>4800</v>
       </c>
-      <c r="K9" t="s">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>-2400</v>
+      </c>
+      <c r="J9" t="s">
         <v>8</v>
       </c>
-      <c r="L9">
+      <c r="K9">
         <v>7500</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:11">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -687,14 +752,18 @@
       <c r="E10">
         <v>65400</v>
       </c>
-      <c r="K10" t="s">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>-11640</v>
+      </c>
+      <c r="J10" t="s">
         <v>9</v>
       </c>
-      <c r="L10">
+      <c r="K10">
         <v>7500</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:11">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -707,14 +776,18 @@
       <c r="E11">
         <v>32400</v>
       </c>
-      <c r="K11" t="s">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>25200</v>
+      </c>
+      <c r="J11" t="s">
         <v>10</v>
       </c>
-      <c r="L11">
+      <c r="K11">
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:11">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -727,14 +800,18 @@
       <c r="E12">
         <v>79200</v>
       </c>
-      <c r="K12" t="s">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>-7200</v>
+      </c>
+      <c r="J12" t="s">
         <v>11</v>
       </c>
-      <c r="L12">
+      <c r="K12">
         <v>9500</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:11">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -747,44 +824,48 @@
       <c r="E13">
         <v>10800</v>
       </c>
-      <c r="K13" t="s">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>-5400</v>
+      </c>
+      <c r="J13" t="s">
         <v>12</v>
       </c>
-      <c r="L13">
+      <c r="K13">
         <v>9000</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
-      <c r="D15" s="3" t="s">
+    <row r="15" spans="2:11">
+      <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="2" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:11">
       <c r="B17" t="s">
         <v>2</v>
       </c>
@@ -797,14 +878,14 @@
       <c r="E17">
         <v>9000</v>
       </c>
-      <c r="K17" t="s">
+      <c r="J17" t="s">
         <v>2</v>
       </c>
-      <c r="L17">
+      <c r="K17">
         <v>20000</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:11">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -817,14 +898,14 @@
       <c r="E18">
         <v>17280</v>
       </c>
-      <c r="K18" t="s">
+      <c r="J18" t="s">
         <v>3</v>
       </c>
-      <c r="L18">
+      <c r="K18">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:11">
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -837,14 +918,14 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="K19" t="s">
+      <c r="J19" t="s">
         <v>4</v>
       </c>
-      <c r="L19">
+      <c r="K19">
         <v>9000</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:11">
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -857,14 +938,14 @@
       <c r="E20">
         <v>9600</v>
       </c>
-      <c r="K20" t="s">
+      <c r="J20" t="s">
         <v>5</v>
       </c>
-      <c r="L20">
+      <c r="K20">
         <v>9600</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:11">
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -877,14 +958,14 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="K21" t="s">
+      <c r="J21" t="s">
         <v>6</v>
       </c>
-      <c r="L21">
+      <c r="K21">
         <v>580</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:11">
       <c r="B22" t="s">
         <v>7</v>
       </c>
@@ -897,14 +978,14 @@
       <c r="E22">
         <v>4320</v>
       </c>
-      <c r="K22" t="s">
+      <c r="J22" t="s">
         <v>7</v>
       </c>
-      <c r="L22">
+      <c r="K22">
         <v>2700</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:11">
       <c r="B23" t="s">
         <v>8</v>
       </c>
@@ -917,14 +998,14 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="K23" t="s">
+      <c r="J23" t="s">
         <v>8</v>
       </c>
-      <c r="L23">
+      <c r="K23">
         <v>7500</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:11">
       <c r="B24" t="s">
         <v>9</v>
       </c>
@@ -937,14 +1018,14 @@
       <c r="E24">
         <v>2400</v>
       </c>
-      <c r="K24" t="s">
+      <c r="J24" t="s">
         <v>9</v>
       </c>
-      <c r="L24">
+      <c r="K24">
         <v>7500</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:11">
       <c r="B25" t="s">
         <v>10</v>
       </c>
@@ -957,14 +1038,14 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="K25" t="s">
+      <c r="J25" t="s">
         <v>10</v>
       </c>
-      <c r="L25">
+      <c r="K25">
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:11">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -977,14 +1058,14 @@
       <c r="E26">
         <v>10800</v>
       </c>
-      <c r="K26" t="s">
+      <c r="J26" t="s">
         <v>11</v>
       </c>
-      <c r="L26">
+      <c r="K26">
         <v>9500</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:11">
       <c r="B27" t="s">
         <v>12</v>
       </c>
@@ -997,10 +1078,10 @@
       <c r="E27">
         <v>2400</v>
       </c>
-      <c r="K27" t="s">
+      <c r="J27" t="s">
         <v>12</v>
       </c>
-      <c r="L27">
+      <c r="K27">
         <v>9000</v>
       </c>
     </row>
@@ -1008,8 +1089,16 @@
   <mergeCells count="3">
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D1:H1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
+  <conditionalFormatting sqref="I3:I13">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1038,53 +1127,53 @@
       </c>
     </row>
     <row r="3" spans="2:12">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Demandas_y_Asignacion.xlsx
+++ b/Demandas_y_Asignacion.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18795" windowHeight="8445"/>
   </bookViews>
   <sheets>
-    <sheet name="Resumen" sheetId="1" r:id="rId1"/>
-    <sheet name="Asignacion Líneas" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Dem. Alta" sheetId="2" r:id="rId1"/>
+    <sheet name="Dem. Baja" sheetId="4" r:id="rId2"/>
+    <sheet name="TASAS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="28">
   <si>
     <t>Stock</t>
   </si>
@@ -66,37 +66,10 @@
     <t>Producir</t>
   </si>
   <si>
-    <t>Saldo</t>
-  </si>
-  <si>
-    <t>ASIGNACION DE LÍNEAS</t>
-  </si>
-  <si>
     <t>Producto/Línea</t>
   </si>
   <si>
-    <t>Línea 1 Agua</t>
-  </si>
-  <si>
-    <t>Línea 2 Agua</t>
-  </si>
-  <si>
-    <t>Línea 3 Agua</t>
-  </si>
-  <si>
-    <t>Línea 4 Gaseosa</t>
-  </si>
-  <si>
-    <t>Línea 5 Gaseosa</t>
-  </si>
-  <si>
     <t>Día de demanda alta</t>
-  </si>
-  <si>
-    <t>Tasa de producción total x hora</t>
-  </si>
-  <si>
-    <t>Tasas de producción</t>
   </si>
   <si>
     <t>Demanda</t>
@@ -104,12 +77,36 @@
   <si>
     <t>Diferencia</t>
   </si>
+  <si>
+    <t>L1 A</t>
+  </si>
+  <si>
+    <t>L2 A</t>
+  </si>
+  <si>
+    <t>L3 A</t>
+  </si>
+  <si>
+    <t>L1 G</t>
+  </si>
+  <si>
+    <t>L2 G</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Horas ocupadas</t>
+  </si>
+  <si>
+    <t>Faltan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,13 +132,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="3" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -176,14 +166,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -212,11 +212,35 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -510,745 +534,2334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K27"/>
+  <dimension ref="B2:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16" customWidth="1"/>
-    <col min="7" max="8" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
-      <c r="D1" s="3" t="s">
+    <row r="2" spans="2:16">
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="J1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="2:11">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
-      <c r="B3" t="s">
+    <row r="4" spans="2:16">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>0.6</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>19800</v>
       </c>
-      <c r="E3">
-        <v>9000</v>
-      </c>
-      <c r="I3">
-        <f>D3-E3</f>
-        <v>10800</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="E4">
+        <v>17000</v>
+      </c>
+      <c r="G4">
+        <f>D4-E4</f>
+        <v>2800</v>
+      </c>
+      <c r="H4">
+        <f>IF(G4&lt;0,-G4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" t="s">
         <v>2</v>
-      </c>
-      <c r="K3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>0.7</v>
-      </c>
-      <c r="D4">
-        <v>58752</v>
-      </c>
-      <c r="E4">
-        <v>193536</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I13" si="0">D4-E4</f>
-        <v>-134784</v>
-      </c>
-      <c r="J4" t="s">
-        <v>3</v>
       </c>
       <c r="K4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="2:11">
+      <c r="N4">
+        <v>8000</v>
+      </c>
+      <c r="O4">
+        <v>2000</v>
+      </c>
+      <c r="P4">
+        <f>K4+L4+M4+N4+O4</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
       <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0.7</v>
+      </c>
+      <c r="D5">
+        <v>58700</v>
+      </c>
+      <c r="E5">
+        <v>193500</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G14" si="0">D5-E5</f>
+        <v>-134800</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H14" si="1">IF(G5&lt;0,-G5,0)</f>
+        <v>134800</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>10000</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P14" si="2">K5+L5+M5+N5+O5</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>3600</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>1200</v>
       </c>
-      <c r="I5">
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
-      <c r="J5" t="s">
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>4</v>
       </c>
-      <c r="K5">
+      <c r="N6">
+        <v>7500</v>
+      </c>
+      <c r="O6">
+        <v>1500</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
         <v>9000</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
-      <c r="B6" t="s">
+    <row r="7" spans="2:16">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>1.5</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>20160</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>69120</v>
       </c>
-      <c r="I6">
+      <c r="G7">
         <f t="shared" si="0"/>
         <v>-48960</v>
       </c>
-      <c r="J6" t="s">
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>48960</v>
+      </c>
+      <c r="J7" t="s">
         <v>5</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>9600</v>
       </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" t="s">
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>4536</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>1848</v>
       </c>
-      <c r="I7">
+      <c r="G8">
         <f t="shared" si="0"/>
         <v>2688</v>
       </c>
-      <c r="J7" t="s">
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
         <v>6</v>
       </c>
-      <c r="K7">
+      <c r="M8">
         <v>580</v>
       </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" t="s">
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1.2</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>9720</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>34560</v>
       </c>
-      <c r="I8">
+      <c r="G9">
         <f t="shared" si="0"/>
         <v>-24840</v>
       </c>
-      <c r="J8" t="s">
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>24840</v>
+      </c>
+      <c r="J9" t="s">
         <v>7</v>
       </c>
-      <c r="K8">
+      <c r="L9">
         <v>2700</v>
       </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" t="s">
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1.4</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>2400</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>4800</v>
       </c>
-      <c r="I9">
+      <c r="G10">
         <f t="shared" si="0"/>
         <v>-2400</v>
       </c>
-      <c r="J9" t="s">
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+      <c r="J10" t="s">
         <v>8</v>
       </c>
-      <c r="K9">
+      <c r="N10">
         <v>7500</v>
       </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" t="s">
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>2.4</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>53760</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>65400</v>
       </c>
-      <c r="I10">
+      <c r="G11">
         <f t="shared" si="0"/>
         <v>-11640</v>
       </c>
-      <c r="J10" t="s">
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>11640</v>
+      </c>
+      <c r="J11" t="s">
         <v>9</v>
       </c>
-      <c r="K10">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" t="s">
+      <c r="N11">
+        <v>8000</v>
+      </c>
+      <c r="O11">
+        <v>1500</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>57600</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>32400</v>
       </c>
-      <c r="I11">
+      <c r="G12">
         <f t="shared" si="0"/>
         <v>25200</v>
       </c>
-      <c r="J11" t="s">
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
         <v>10</v>
       </c>
-      <c r="K11">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" t="s">
+      <c r="N12">
+        <v>7500</v>
+      </c>
+      <c r="O12">
+        <v>1500</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>0.9</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>72000</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>79200</v>
       </c>
-      <c r="I12">
+      <c r="G13">
         <f t="shared" si="0"/>
         <v>-7200</v>
       </c>
-      <c r="J12" t="s">
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>7200</v>
+      </c>
+      <c r="J13" t="s">
         <v>11</v>
       </c>
-      <c r="K12">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" t="s">
+      <c r="N13">
+        <v>7500</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>0.85</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>5400</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>10800</v>
       </c>
-      <c r="I13">
+      <c r="G14">
         <f t="shared" si="0"/>
         <v>-5400</v>
       </c>
-      <c r="J13" t="s">
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>5400</v>
+      </c>
+      <c r="J14" t="s">
         <v>12</v>
       </c>
-      <c r="K13">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="D15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="N14">
+        <v>8000</v>
+      </c>
+      <c r="O14">
+        <v>2000</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="1" t="s">
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <f>SUM(C18:G18)</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f>H4</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f>ABS(H18-I18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>134800</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:H28" si="3">SUM(C19:G19)</f>
+        <v>134800</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19:I28" si="4">H5</f>
+        <v>134800</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:J28" si="5">ABS(H19-I19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>24192</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>24192</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>48960</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>24840</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>24840</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>24840</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>2400</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>2400</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>11640</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>11640</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>11640</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>7200</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>7200</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>7200</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>5400</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>5400</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>5400</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" t="s">
+      <c r="C31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" t="s">
         <v>2</v>
       </c>
-      <c r="C17">
-        <v>0.6</v>
-      </c>
-      <c r="D17">
-        <v>90000</v>
-      </c>
-      <c r="E17">
-        <v>9000</v>
-      </c>
-      <c r="J17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" t="s">
+      <c r="C32">
+        <f>IF(AND(K4&gt;0,C18&gt;0),C18/K4 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:G32" si="6">IF(AND(L4&gt;0,D18&gt;0),D18/L4 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>SUM(C32:G32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="C18">
-        <v>0.7</v>
-      </c>
-      <c r="D18">
-        <v>248832</v>
-      </c>
-      <c r="E18">
-        <v>17280</v>
-      </c>
-      <c r="J18" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" t="s">
+      <c r="C33">
+        <f>IF(AND(K5&gt;0,C19&gt;0),C19/K5 + 4,)</f>
+        <v>17.48</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:D34" si="7">IF(AND(L5&gt;0,D19&gt;0),D19/L5 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ref="E33:E34" si="8">IF(AND(M5&gt;0,E19&gt;0),E19/M5 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:F34" si="9">IF(AND(N5&gt;0,F19&gt;0),F19/N5 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:G34" si="10">IF(AND(O5&gt;0,G19&gt;0),G19/O5 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ref="H33:H42" si="11">SUM(C33:G33)</f>
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>32400</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" t="s">
+      <c r="C34">
+        <f>IF(AND(K6&gt;0,C20&gt;0),C20/K6 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" t="s">
         <v>5</v>
       </c>
-      <c r="C20">
-        <v>1.5</v>
-      </c>
-      <c r="D20">
-        <v>127100</v>
-      </c>
-      <c r="E20">
-        <v>9600</v>
-      </c>
-      <c r="J20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" t="s">
+      <c r="C35">
+        <f>IF(AND(K7&gt;0,C21&gt;0),C21/K7 + 4,)</f>
+        <v>6.52</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35:D38" si="12">IF(AND(L7&gt;0,D21&gt;0),D21/L7 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35:E38" si="13">IF(AND(M7&gt;0,E21&gt;0),E21/M7 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35:F38" si="14">IF(AND(N7&gt;0,F21&gt;0),F21/N7 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ref="G35:G38" si="15">IF(AND(O7&gt;0,G21&gt;0),G21/O7 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="11"/>
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" t="s">
         <v>6</v>
       </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>96000</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>6</v>
-      </c>
-      <c r="K21">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" t="s">
+      <c r="C36">
+        <f t="shared" ref="C36:C42" si="16">IF(AND(K8&gt;0,C22&gt;0),C22/K8 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" t="s">
         <v>7</v>
       </c>
-      <c r="C22">
-        <v>1.2</v>
-      </c>
-      <c r="D22">
-        <v>36000</v>
-      </c>
-      <c r="E22">
-        <v>4320</v>
-      </c>
-      <c r="J22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" t="s">
+      <c r="C37">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="12"/>
+        <v>13.2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="11"/>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" t="s">
         <v>8</v>
       </c>
-      <c r="C23">
-        <v>1.4</v>
-      </c>
-      <c r="D23">
-        <v>25920</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" t="s">
+      <c r="C38">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="14"/>
+        <v>4.32</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="11"/>
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" t="s">
         <v>9</v>
       </c>
-      <c r="C24">
-        <v>2.4</v>
-      </c>
-      <c r="D24">
-        <v>38400</v>
-      </c>
-      <c r="E24">
-        <v>2400</v>
-      </c>
-      <c r="J24" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" t="s">
+      <c r="C39">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:D42" si="17">IF(AND(L11&gt;0,D25&gt;0),D25/L11 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:E42" si="18">IF(AND(M11&gt;0,E25&gt;0),E25/M11 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ref="F39:F42" si="19">IF(AND(N11&gt;0,F25&gt;0),F25/N11 + 4,)</f>
+        <v>5.4550000000000001</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ref="G39:G42" si="20">IF(AND(O11&gt;0,G25&gt;0),G25/O11 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="11"/>
+        <v>5.4550000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" t="s">
         <v>10</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>108000</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" t="s">
+      <c r="C40">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" t="s">
         <v>11</v>
       </c>
-      <c r="C26">
-        <v>0.9</v>
-      </c>
-      <c r="D26">
-        <v>144000</v>
-      </c>
-      <c r="E26">
-        <v>10800</v>
-      </c>
-      <c r="J26" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" t="s">
+      <c r="C41">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="19"/>
+        <v>4.96</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="11"/>
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" t="s">
         <v>12</v>
       </c>
-      <c r="C27">
-        <v>0.85</v>
-      </c>
-      <c r="D27">
-        <v>30000</v>
-      </c>
-      <c r="E27">
-        <v>2400</v>
-      </c>
-      <c r="J27" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27">
-        <v>9000</v>
+      <c r="C42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="19"/>
+        <v>4.6749999999999998</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="11"/>
+        <v>4.6749999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43">
+        <f>SUM(C32:C42)</f>
+        <v>24</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43:H43" si="21">SUM(D32:D42)</f>
+        <v>13.2</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="21"/>
+        <v>19.41</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f>SUM(H32:H42)</f>
+        <v>56.61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="J1:K1"/>
+  <mergeCells count="1">
+    <mergeCell ref="D2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3:I13">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="G4:G14">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:L15"/>
+  <dimension ref="B2:P43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="C3" s="3" t="s">
+    <row r="2" spans="2:16">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="1" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="O3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.6</v>
+      </c>
+      <c r="D4">
+        <v>9000</v>
+      </c>
+      <c r="E4">
+        <v>12800</v>
+      </c>
+      <c r="G4">
+        <f>D4-E4</f>
+        <v>-3800</v>
+      </c>
+      <c r="H4">
+        <f>IF(G4&lt;0,-G4,0)</f>
+        <v>3800</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>10000</v>
+      </c>
+      <c r="N4">
+        <v>8000</v>
+      </c>
+      <c r="O4">
+        <v>2000</v>
+      </c>
+      <c r="P4">
+        <f>K4+L4+M4+N4+O4</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0.7</v>
+      </c>
+      <c r="D5">
+        <v>248832</v>
+      </c>
+      <c r="E5">
+        <v>17280</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G14" si="0">D5-E5</f>
+        <v>231552</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H14" si="1">IF(G5&lt;0,-G5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>10000</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P14" si="2">K5+L5+M5+N5+O5</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>11400</v>
+      </c>
+      <c r="E6">
+        <v>14000</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-2600</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>2600</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>7500</v>
+      </c>
+      <c r="O6">
+        <v>1500</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1.5</v>
+      </c>
+      <c r="D7">
+        <v>127100</v>
+      </c>
+      <c r="E7">
+        <v>9600</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>117500</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>9600</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>96000</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>96000</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>580</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1.2</v>
+      </c>
+      <c r="D9">
+        <v>36000</v>
+      </c>
+      <c r="E9">
+        <v>43200</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>-7200</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>7200</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>2700</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1.4</v>
+      </c>
+      <c r="D10">
+        <v>25920</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>25920</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <v>7500</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>2.4</v>
+      </c>
+      <c r="D11">
+        <v>38400</v>
+      </c>
+      <c r="E11">
+        <v>2400</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>36000</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11">
+        <v>8000</v>
+      </c>
+      <c r="O11">
+        <v>1500</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>108000</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>108000</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>7500</v>
+      </c>
+      <c r="O12">
+        <v>1500</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0.9</v>
+      </c>
+      <c r="D13">
+        <v>144000</v>
+      </c>
+      <c r="E13">
+        <v>10800</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>133200</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13">
+        <v>7500</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0.85</v>
+      </c>
+      <c r="D14">
+        <v>30000</v>
+      </c>
+      <c r="E14">
+        <v>2400</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>27600</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>8000</v>
+      </c>
+      <c r="O14">
+        <v>2000</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" t="s">
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" t="s">
+      <c r="C18">
+        <v>3800</v>
+      </c>
+      <c r="H18">
+        <f>SUM(C18:G18)</f>
+        <v>3800</v>
+      </c>
+      <c r="I18">
+        <f>H4</f>
+        <v>3800</v>
+      </c>
+      <c r="J18">
+        <f>ABS(H18-I18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" t="s">
+      <c r="H19">
+        <f t="shared" ref="H19:H28" si="3">SUM(C19:G19)</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19:I28" si="4">H5</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:J28" si="5">ABS(H19-I19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" t="s">
+      <c r="F20">
+        <v>2600</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>2600</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>2600</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" t="s">
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" t="s">
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" t="s">
+      <c r="D23">
+        <v>7200</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>7200</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>7200</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" t="s">
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" t="s">
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" t="s">
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" t="s">
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" t="s">
         <v>12</v>
       </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <f>IF(AND(K4&gt;0,C18&gt;0),C18/K4 + 4,)</f>
+        <v>4.38</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:G42" si="6">IF(AND(L4&gt;0,D18&gt;0),D18/L4 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>SUM(C32:G32)</f>
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <f>IF(AND(K5&gt;0,C19&gt;0),C19/K5 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ref="H33:H42" si="7">SUM(C33:G33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <f>IF(AND(K6&gt;0,C20&gt;0),C20/K6 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="6"/>
+        <v>4.3466666666666667</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="7"/>
+        <v>4.3466666666666667</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <f>IF(AND(K7&gt;0,C21&gt;0),C21/K7 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:C42" si="8">IF(AND(K8&gt;0,C22&gt;0),C22/K8 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="6"/>
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="7"/>
+        <v>6.6666666666666661</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43">
+        <f>SUM(C32:C42)</f>
+        <v>4.38</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43:G43" si="9">SUM(D32:D42)</f>
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="9"/>
+        <v>4.3466666666666667</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f>SUM(H32:H42)</f>
+        <v>15.393333333333333</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:L3"/>
+  <mergeCells count="1">
+    <mergeCell ref="D2:H2"/>
   </mergeCells>
+  <conditionalFormatting sqref="G4:G14">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="B2:H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>10000</v>
+      </c>
+      <c r="F3">
+        <v>8000</v>
+      </c>
+      <c r="G3">
+        <v>2000</v>
+      </c>
+      <c r="H3">
+        <f>C3+D3+E3+F3+G3</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>10000</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H13" si="0">C4+D4+E4+F4+G4</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>7500</v>
+      </c>
+      <c r="G5">
+        <v>1500</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>9600</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>580</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>2700</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>7500</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>8000</v>
+      </c>
+      <c r="G10">
+        <v>1500</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>7500</v>
+      </c>
+      <c r="G11">
+        <v>1500</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>7500</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>8000</v>
+      </c>
+      <c r="G13">
+        <v>2000</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Demandas_y_Asignacion.xlsx
+++ b/Demandas_y_Asignacion.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18795" windowHeight="8445"/>
@@ -11,12 +11,12 @@
     <sheet name="Dem. Baja" sheetId="4" r:id="rId2"/>
     <sheet name="TASAS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="40">
   <si>
     <t>Stock</t>
   </si>
@@ -100,6 +100,42 @@
   </si>
   <si>
     <t>Faltan</t>
+  </si>
+  <si>
+    <t>MAXIMO</t>
+  </si>
+  <si>
+    <t>DEMANDA</t>
+  </si>
+  <si>
+    <t>MAX PAL</t>
+  </si>
+  <si>
+    <t>STOCK</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>DIFERENCIA</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>LINEAS</t>
   </si>
 </sst>
 </file>
@@ -160,30 +196,18 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <condense val="0"/>
@@ -229,18 +253,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -534,17 +546,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:P43"/>
+  <dimension ref="B2:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
@@ -553,11 +565,16 @@
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:21">
       <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
@@ -566,7 +583,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:16">
+    <row r="3" spans="2:21">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -586,7 +603,7 @@
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="2"/>
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
@@ -608,8 +625,23 @@
       <c r="P3" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="2:16">
+      <c r="Q3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -617,14 +649,16 @@
         <v>0.6</v>
       </c>
       <c r="D4">
-        <v>19800</v>
+        <f>Q4*300*6</f>
+        <v>72000</v>
       </c>
       <c r="E4">
-        <v>17000</v>
+        <f>R4*300*6</f>
+        <v>36000</v>
       </c>
       <c r="G4">
         <f>D4-E4</f>
-        <v>2800</v>
+        <v>36000</v>
       </c>
       <c r="H4">
         <f>IF(G4&lt;0,-G4,0)</f>
@@ -647,8 +681,24 @@
         <f>K4+L4+M4+N4+O4</f>
         <v>20000</v>
       </c>
-    </row>
-    <row r="5" spans="2:16">
+      <c r="Q4">
+        <v>40</v>
+      </c>
+      <c r="R4">
+        <v>20</v>
+      </c>
+      <c r="S4">
+        <v>480000</v>
+      </c>
+      <c r="T4">
+        <v>266.66666670000001</v>
+      </c>
+      <c r="U4">
+        <f>T4-Q4</f>
+        <v>226.66666670000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -656,18 +706,20 @@
         <v>0.7</v>
       </c>
       <c r="D5">
-        <v>58700</v>
+        <f>Q5*144*12</f>
+        <v>112320</v>
       </c>
       <c r="E5">
-        <v>193500</v>
+        <f>R5*144*12</f>
+        <v>245376</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G14" si="0">D5-E5</f>
-        <v>-134800</v>
+        <v>-133056</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H14" si="1">IF(G5&lt;0,-G5,0)</f>
-        <v>134800</v>
+        <v>133056</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
@@ -679,8 +731,24 @@
         <f t="shared" ref="P5:P14" si="2">K5+L5+M5+N5+O5</f>
         <v>10000</v>
       </c>
-    </row>
-    <row r="6" spans="2:16">
+      <c r="Q5">
+        <v>65</v>
+      </c>
+      <c r="R5">
+        <v>142</v>
+      </c>
+      <c r="S5">
+        <v>240000</v>
+      </c>
+      <c r="T5">
+        <v>138.88888890000001</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U5:U14" si="3">T5-Q5</f>
+        <v>73.888888900000012</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -688,18 +756,20 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>3600</v>
+        <f>Q6*100*6</f>
+        <v>18000</v>
       </c>
       <c r="E6">
-        <v>1200</v>
+        <f>R6*100*6</f>
+        <v>43800</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>-25800</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25800</v>
       </c>
       <c r="J6" t="s">
         <v>4</v>
@@ -714,8 +784,24 @@
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="7" spans="2:16">
+      <c r="Q6">
+        <v>30</v>
+      </c>
+      <c r="R6">
+        <v>73</v>
+      </c>
+      <c r="S6">
+        <v>216000</v>
+      </c>
+      <c r="T6">
+        <v>360</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="3"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -723,18 +809,20 @@
         <v>1.5</v>
       </c>
       <c r="D7">
-        <v>20160</v>
+        <f>Q7*80*6</f>
+        <v>120000</v>
       </c>
       <c r="E7">
-        <v>69120</v>
+        <f>R7*80*6</f>
+        <v>95520</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>-48960</v>
+        <v>24480</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>48960</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>5</v>
@@ -746,8 +834,24 @@
         <f t="shared" si="2"/>
         <v>9600</v>
       </c>
-    </row>
-    <row r="8" spans="2:16">
+      <c r="Q7">
+        <v>250</v>
+      </c>
+      <c r="R7">
+        <v>199</v>
+      </c>
+      <c r="S7">
+        <v>230400</v>
+      </c>
+      <c r="T7">
+        <v>480</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -755,14 +859,16 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>4536</v>
+        <f>Q8*168</f>
+        <v>6496</v>
       </c>
       <c r="E8">
+        <f>R8*168</f>
         <v>1848</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>2688</v>
+        <v>4648</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -778,8 +884,25 @@
         <f t="shared" si="2"/>
         <v>580</v>
       </c>
-    </row>
-    <row r="9" spans="2:16">
+      <c r="Q8">
+        <f>(580*24)/60/6</f>
+        <v>38.666666666666664</v>
+      </c>
+      <c r="R8">
+        <v>11</v>
+      </c>
+      <c r="S8">
+        <v>13920</v>
+      </c>
+      <c r="T8">
+        <v>82.857142859999996</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="3"/>
+        <v>44.190476193333332</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -787,18 +910,20 @@
         <v>1.2</v>
       </c>
       <c r="D9">
-        <v>9720</v>
+        <f>Q9*60*6</f>
+        <v>64800</v>
       </c>
       <c r="E9">
-        <v>34560</v>
+        <f>R9*60*6</f>
+        <v>51840</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>-24840</v>
+        <v>12960</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>24840</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>7</v>
@@ -810,8 +935,25 @@
         <f t="shared" si="2"/>
         <v>2700</v>
       </c>
-    </row>
-    <row r="10" spans="2:16">
+      <c r="Q9">
+        <f>(2700*24)/60/6</f>
+        <v>180</v>
+      </c>
+      <c r="R9">
+        <v>144</v>
+      </c>
+      <c r="S9">
+        <v>64800</v>
+      </c>
+      <c r="T9">
+        <v>180</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -819,18 +961,20 @@
         <v>1.4</v>
       </c>
       <c r="D10">
-        <v>2400</v>
+        <f>Q10*80*6</f>
+        <v>17280</v>
       </c>
       <c r="E10">
+        <f>R10*80*6</f>
         <v>4800</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>-2400</v>
+        <v>12480</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>8</v>
@@ -842,8 +986,24 @@
         <f t="shared" si="2"/>
         <v>7500</v>
       </c>
-    </row>
-    <row r="11" spans="2:16">
+      <c r="Q10">
+        <v>36</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>180000</v>
+      </c>
+      <c r="T10">
+        <v>375</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="3"/>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -851,18 +1011,20 @@
         <v>2.4</v>
       </c>
       <c r="D11">
-        <v>53760</v>
+        <f>Q11*80*6</f>
+        <v>19200</v>
       </c>
       <c r="E11">
-        <v>65400</v>
+        <f>R11*80*6</f>
+        <v>67200</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>-11640</v>
+        <v>-48000</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>11640</v>
+        <v>48000</v>
       </c>
       <c r="J11" t="s">
         <v>9</v>
@@ -870,15 +1032,28 @@
       <c r="N11">
         <v>8000</v>
       </c>
-      <c r="O11">
-        <v>1500</v>
-      </c>
       <c r="P11">
         <f t="shared" si="2"/>
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16">
+        <v>8000</v>
+      </c>
+      <c r="Q11">
+        <v>40</v>
+      </c>
+      <c r="R11">
+        <v>140</v>
+      </c>
+      <c r="S11">
+        <v>180000</v>
+      </c>
+      <c r="T11">
+        <v>375</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="3"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -886,18 +1061,20 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>57600</v>
+        <f>Q12*300*6</f>
+        <v>30600</v>
       </c>
       <c r="E12">
-        <v>32400</v>
+        <f>R12*300*6</f>
+        <v>111600</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>25200</v>
+        <v>-81000</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>81000</v>
       </c>
       <c r="J12" t="s">
         <v>10</v>
@@ -912,8 +1089,24 @@
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="13" spans="2:16">
+      <c r="Q12">
+        <v>17</v>
+      </c>
+      <c r="R12">
+        <v>62</v>
+      </c>
+      <c r="S12">
+        <v>240000</v>
+      </c>
+      <c r="T12">
+        <v>133.33333329999999</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="3"/>
+        <v>116.33333329999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -921,18 +1114,20 @@
         <v>0.9</v>
       </c>
       <c r="D13">
-        <v>72000</v>
+        <f>Q13*300*6</f>
+        <v>45000</v>
       </c>
       <c r="E13">
-        <v>79200</v>
+        <f>R13*300*6</f>
+        <v>88200</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>-7200</v>
+        <v>-43200</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>7200</v>
+        <v>43200</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -944,8 +1139,24 @@
         <f t="shared" si="2"/>
         <v>7500</v>
       </c>
-    </row>
-    <row r="14" spans="2:16">
+      <c r="Q13">
+        <v>25</v>
+      </c>
+      <c r="R13">
+        <v>49</v>
+      </c>
+      <c r="S13">
+        <v>228000</v>
+      </c>
+      <c r="T13">
+        <v>126.66666669999999</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="3"/>
+        <v>101.66666669999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -953,18 +1164,20 @@
         <v>0.85</v>
       </c>
       <c r="D14">
-        <v>5400</v>
+        <f>Q14*100*6</f>
+        <v>18000</v>
       </c>
       <c r="E14">
-        <v>10800</v>
+        <f>R14*100*6</f>
+        <v>30000</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>-5400</v>
+        <v>-12000</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>5400</v>
+        <v>12000</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -973,14 +1186,54 @@
         <v>8000</v>
       </c>
       <c r="O14">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
+        <v>9500</v>
+      </c>
+      <c r="Q14">
+        <v>30</v>
+      </c>
+      <c r="R14">
+        <v>50</v>
+      </c>
+      <c r="S14">
+        <v>216000</v>
+      </c>
+      <c r="T14">
+        <v>360</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="3"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21">
+      <c r="Q15">
+        <f>SUM(Q4:Q14)</f>
+        <v>751.66666666666674</v>
+      </c>
+      <c r="R15">
+        <f>SUM(R4:R14)</f>
+        <v>900</v>
+      </c>
+      <c r="T15">
+        <f>SUM(T4:T14)</f>
+        <v>2878.4126984599998</v>
+      </c>
+      <c r="U15">
+        <f>SUM(U4:U14)</f>
+        <v>2126.7460317933333</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21">
+      <c r="T16">
+        <f>T15-R15</f>
+        <v>1978.4126984599998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1008,8 +1261,26 @@
       <c r="J17" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="O17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20">
       <c r="B18" t="s">
         <v>2</v>
       </c>
@@ -1025,8 +1296,24 @@
         <f>ABS(H18-I18)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f>D4/N4</f>
+        <v>9</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20">
       <c r="B19" t="s">
         <v>3</v>
       </c>
@@ -1034,36 +1321,68 @@
         <v>134800</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:H28" si="3">SUM(C19:G19)</f>
+        <f t="shared" ref="H19:H28" si="4">SUM(C19:G19)</f>
         <v>134800</v>
       </c>
       <c r="I19">
-        <f t="shared" ref="I19:I28" si="4">H5</f>
-        <v>134800</v>
+        <f t="shared" ref="I19:I28" si="5">H5</f>
+        <v>133056</v>
       </c>
       <c r="J19">
-        <f t="shared" ref="J19:J28" si="5">ABS(H19-I19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
+        <f t="shared" ref="J19:J28" si="6">ABS(H19-I19)</f>
+        <v>1744</v>
+      </c>
+      <c r="P19">
+        <f>D5/K5</f>
+        <v>11.231999999999999</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20">
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="H20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>25800</v>
       </c>
       <c r="J20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
+        <f t="shared" si="6"/>
+        <v>25800</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" ref="T19:T28" si="7">D6/O6</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
       <c r="B21" t="s">
         <v>5</v>
       </c>
@@ -1071,36 +1390,67 @@
         <v>24192</v>
       </c>
       <c r="H21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24192</v>
       </c>
       <c r="I21">
-        <f t="shared" si="4"/>
-        <v>48960</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="J21">
-        <f t="shared" si="5"/>
-        <v>24768</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
+        <f t="shared" si="6"/>
+        <v>24192</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ref="P21" si="8">D7/K7</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20">
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="H22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20">
       <c r="B23" t="s">
         <v>7</v>
       </c>
@@ -1108,19 +1458,34 @@
         <v>24840</v>
       </c>
       <c r="H23">
-        <f t="shared" si="3"/>
-        <v>24840</v>
-      </c>
-      <c r="I23">
         <f t="shared" si="4"/>
         <v>24840</v>
       </c>
+      <c r="I23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
+        <f t="shared" si="6"/>
+        <v>24840</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>24</v>
+      </c>
+      <c r="R23">
+        <v>24</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
       <c r="B24" t="s">
         <v>8</v>
       </c>
@@ -1128,19 +1493,35 @@
         <v>2400</v>
       </c>
       <c r="H24">
-        <f t="shared" si="3"/>
-        <v>2400</v>
-      </c>
-      <c r="I24">
         <f t="shared" si="4"/>
         <v>2400</v>
       </c>
+      <c r="I24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
+        <f t="shared" si="6"/>
+        <v>2400</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" ref="S19:S28" si="9">D10/N10</f>
+        <v>2.3039999999999998</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
       <c r="B25" t="s">
         <v>9</v>
       </c>
@@ -1148,36 +1529,68 @@
         <v>11640</v>
       </c>
       <c r="H25">
-        <f t="shared" si="3"/>
-        <v>11640</v>
-      </c>
-      <c r="I25">
         <f t="shared" si="4"/>
         <v>11640</v>
       </c>
+      <c r="I25">
+        <f t="shared" si="5"/>
+        <v>48000</v>
+      </c>
       <c r="J25">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
+        <f t="shared" si="6"/>
+        <v>36360</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="9"/>
+        <v>2.4</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20">
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="H26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I26">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>81000</v>
       </c>
       <c r="J26">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
+        <f t="shared" si="6"/>
+        <v>81000</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="9"/>
+        <v>4.08</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -1185,19 +1598,35 @@
         <v>7200</v>
       </c>
       <c r="H27">
-        <f t="shared" si="3"/>
-        <v>7200</v>
-      </c>
-      <c r="I27">
         <f t="shared" si="4"/>
         <v>7200</v>
       </c>
+      <c r="I27">
+        <f t="shared" si="5"/>
+        <v>43200</v>
+      </c>
       <c r="J27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
+        <f t="shared" si="6"/>
+        <v>36000</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
       <c r="B28" t="s">
         <v>12</v>
       </c>
@@ -1205,22 +1634,61 @@
         <v>5400</v>
       </c>
       <c r="H28">
-        <f t="shared" si="3"/>
-        <v>5400</v>
-      </c>
-      <c r="I28">
         <f t="shared" si="4"/>
         <v>5400</v>
       </c>
+      <c r="I28">
+        <f t="shared" si="5"/>
+        <v>12000</v>
+      </c>
       <c r="J28">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
+        <f t="shared" si="6"/>
+        <v>6600</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f>D14/O14</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20">
       <c r="B29" s="1"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="O29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29">
+        <f>SUM(P18:P28)</f>
+        <v>23.731999999999999</v>
+      </c>
+      <c r="Q29">
+        <f>SUM(Q18:Q28)</f>
+        <v>24</v>
+      </c>
+      <c r="R29">
+        <f t="shared" ref="R29:T29" si="10">SUM(R18:R28)</f>
+        <v>24</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="10"/>
+        <v>23.783999999999999</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20">
       <c r="B31" s="1" t="s">
         <v>16</v>
       </c>
@@ -1243,7 +1711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:20">
       <c r="B32" t="s">
         <v>2</v>
       </c>
@@ -1252,19 +1720,19 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:G32" si="6">IF(AND(L4&gt;0,D18&gt;0),D18/L4 + 4,)</f>
+        <f t="shared" ref="D32:G32" si="11">IF(AND(L4&gt;0,D18&gt;0),D18/L4 + 4,)</f>
         <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H32">
@@ -1281,23 +1749,23 @@
         <v>17.48</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33:D34" si="7">IF(AND(L5&gt;0,D19&gt;0),D19/L5 + 4,)</f>
+        <f t="shared" ref="D33:D34" si="12">IF(AND(L5&gt;0,D19&gt;0),D19/L5 + 4,)</f>
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E34" si="8">IF(AND(M5&gt;0,E19&gt;0),E19/M5 + 4,)</f>
+        <f t="shared" ref="E33:E34" si="13">IF(AND(M5&gt;0,E19&gt;0),E19/M5 + 4,)</f>
         <v>0</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33:F34" si="9">IF(AND(N5&gt;0,F19&gt;0),F19/N5 + 4,)</f>
+        <f t="shared" ref="F33:F34" si="14">IF(AND(N5&gt;0,F19&gt;0),F19/N5 + 4,)</f>
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33:G34" si="10">IF(AND(O5&gt;0,G19&gt;0),G19/O5 + 4,)</f>
+        <f t="shared" ref="G33:G34" si="15">IF(AND(O5&gt;0,G19&gt;0),G19/O5 + 4,)</f>
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H42" si="11">SUM(C33:G33)</f>
+        <f t="shared" ref="H33:H42" si="16">SUM(C33:G33)</f>
         <v>17.48</v>
       </c>
     </row>
@@ -1310,23 +1778,23 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -1339,23 +1807,23 @@
         <v>6.52</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35:D38" si="12">IF(AND(L7&gt;0,D21&gt;0),D21/L7 + 4,)</f>
+        <f t="shared" ref="D35:D38" si="17">IF(AND(L7&gt;0,D21&gt;0),D21/L7 + 4,)</f>
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" ref="E35:E38" si="13">IF(AND(M7&gt;0,E21&gt;0),E21/M7 + 4,)</f>
+        <f t="shared" ref="E35:E38" si="18">IF(AND(M7&gt;0,E21&gt;0),E21/M7 + 4,)</f>
         <v>0</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:F38" si="14">IF(AND(N7&gt;0,F21&gt;0),F21/N7 + 4,)</f>
+        <f t="shared" ref="F35:F38" si="19">IF(AND(N7&gt;0,F21&gt;0),F21/N7 + 4,)</f>
         <v>0</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:G38" si="15">IF(AND(O7&gt;0,G21&gt;0),G21/O7 + 4,)</f>
+        <f t="shared" ref="G35:G38" si="20">IF(AND(O7&gt;0,G21&gt;0),G21/O7 + 4,)</f>
         <v>0</v>
       </c>
       <c r="H35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.52</v>
       </c>
     </row>
@@ -1364,27 +1832,27 @@
         <v>6</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:C42" si="16">IF(AND(K8&gt;0,C22&gt;0),C22/K8 + 4,)</f>
+        <f t="shared" ref="C36:C42" si="21">IF(AND(K8&gt;0,C22&gt;0),C22/K8 + 4,)</f>
         <v>0</v>
       </c>
       <c r="D36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -1393,27 +1861,27 @@
         <v>7</v>
       </c>
       <c r="C37">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="17"/>
+        <v>13.2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="12"/>
-        <v>13.2</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="11"/>
         <v>13.2</v>
       </c>
     </row>
@@ -1422,27 +1890,27 @@
         <v>8</v>
       </c>
       <c r="C38">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="19"/>
+        <v>4.32</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="14"/>
-        <v>4.32</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="11"/>
         <v>4.32</v>
       </c>
     </row>
@@ -1451,27 +1919,27 @@
         <v>9</v>
       </c>
       <c r="C39">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:D42" si="22">IF(AND(L11&gt;0,D25&gt;0),D25/L11 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:E42" si="23">IF(AND(M11&gt;0,E25&gt;0),E25/M11 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ref="F39:F42" si="24">IF(AND(N11&gt;0,F25&gt;0),F25/N11 + 4,)</f>
+        <v>5.4550000000000001</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ref="G39:G42" si="25">IF(AND(O11&gt;0,G25&gt;0),G25/O11 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <f t="shared" ref="D39:D42" si="17">IF(AND(L11&gt;0,D25&gt;0),D25/L11 + 4,)</f>
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <f t="shared" ref="E39:E42" si="18">IF(AND(M11&gt;0,E25&gt;0),E25/M11 + 4,)</f>
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <f t="shared" ref="F39:F42" si="19">IF(AND(N11&gt;0,F25&gt;0),F25/N11 + 4,)</f>
-        <v>5.4550000000000001</v>
-      </c>
-      <c r="G39">
-        <f t="shared" ref="G39:G42" si="20">IF(AND(O11&gt;0,G25&gt;0),G25/O11 + 4,)</f>
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="11"/>
         <v>5.4550000000000001</v>
       </c>
     </row>
@@ -1480,27 +1948,27 @@
         <v>10</v>
       </c>
       <c r="C40">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1509,27 +1977,27 @@
         <v>11</v>
       </c>
       <c r="C41">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="24"/>
+        <v>4.96</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="19"/>
-        <v>4.96</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="11"/>
         <v>4.96</v>
       </c>
     </row>
@@ -1538,27 +2006,27 @@
         <v>12</v>
       </c>
       <c r="C42">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="24"/>
+        <v>4.6749999999999998</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="19"/>
-        <v>4.6749999999999998</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="11"/>
         <v>4.6749999999999998</v>
       </c>
     </row>
@@ -1571,19 +2039,19 @@
         <v>24</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43:H43" si="21">SUM(D32:D42)</f>
+        <f t="shared" ref="D43:G43" si="26">SUM(D32:D42)</f>
         <v>13.2</v>
       </c>
       <c r="E43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>19.41</v>
       </c>
       <c r="G43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H43">
@@ -1596,14 +2064,15 @@
     <mergeCell ref="D2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G14">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1633,13 +2102,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16">
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" s="1" t="s">
@@ -1661,7 +2130,7 @@
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="2"/>
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2659,10 +3128,10 @@
     <mergeCell ref="D2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G14">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Demandas_y_Asignacion.xlsx
+++ b/Demandas_y_Asignacion.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="42">
   <si>
     <t>Stock</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>LINEAS</t>
+  </si>
+  <si>
+    <t>MINIMO PAL</t>
+  </si>
+  <si>
+    <t>LOTE MIN</t>
   </si>
 </sst>
 </file>
@@ -212,6 +218,30 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -229,30 +259,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -546,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:U43"/>
+  <dimension ref="B2:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -560,21 +566,21 @@
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21">
+    <row r="2" spans="2:22">
       <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
@@ -583,7 +589,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:21">
+    <row r="3" spans="2:22">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -603,45 +609,50 @@
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21">
+        <v>40</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -649,11 +660,11 @@
         <v>0.6</v>
       </c>
       <c r="D4">
+        <f>P4*300*6</f>
+        <v>72000</v>
+      </c>
+      <c r="E4">
         <f>Q4*300*6</f>
-        <v>72000</v>
-      </c>
-      <c r="E4">
-        <f>R4*300*6</f>
         <v>36000</v>
       </c>
       <c r="G4">
@@ -664,41 +675,47 @@
         <f>IF(G4&lt;0,-G4,0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" t="s">
+      <c r="I4" t="s">
         <v>2</v>
       </c>
-      <c r="K4">
+      <c r="J4">
         <v>10000</v>
       </c>
+      <c r="M4">
+        <v>8000</v>
+      </c>
       <c r="N4">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="O4">
-        <v>2000</v>
+        <f>J4+K4+L4+M4+N4</f>
+        <v>20000</v>
       </c>
       <c r="P4">
-        <f>K4+L4+M4+N4+O4</f>
-        <v>20000</v>
+        <v>40</v>
       </c>
       <c r="Q4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R4">
-        <v>20</v>
+        <v>480000</v>
       </c>
       <c r="S4">
-        <v>480000</v>
+        <v>266.66666670000001</v>
       </c>
       <c r="T4">
-        <v>266.66666670000001</v>
+        <f>S4-P4</f>
+        <v>226.66666670000001</v>
       </c>
       <c r="U4">
-        <f>T4-Q4</f>
-        <v>226.66666670000001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21">
+        <f>V4*300*6</f>
+        <v>5400</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -706,11 +723,11 @@
         <v>0.7</v>
       </c>
       <c r="D5">
+        <f>P5*144*12</f>
+        <v>112320</v>
+      </c>
+      <c r="E5">
         <f>Q5*144*12</f>
-        <v>112320</v>
-      </c>
-      <c r="E5">
-        <f>R5*144*12</f>
         <v>245376</v>
       </c>
       <c r="G5">
@@ -721,34 +738,38 @@
         <f t="shared" ref="H5:H14" si="1">IF(G5&lt;0,-G5,0)</f>
         <v>133056</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" t="s">
         <v>3</v>
       </c>
-      <c r="K5">
+      <c r="J5">
         <v>10000</v>
       </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O14" si="2">J5+K5+L5+M5+N5</f>
+        <v>10000</v>
+      </c>
       <c r="P5">
-        <f t="shared" ref="P5:P14" si="2">K5+L5+M5+N5+O5</f>
-        <v>10000</v>
+        <v>65</v>
       </c>
       <c r="Q5">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="R5">
-        <v>142</v>
+        <v>240000</v>
       </c>
       <c r="S5">
-        <v>240000</v>
+        <v>138.88888890000001</v>
       </c>
       <c r="T5">
-        <v>138.88888890000001</v>
+        <f t="shared" ref="T5:T14" si="3">S5-P5</f>
+        <v>73.888888900000012</v>
       </c>
       <c r="U5">
-        <f t="shared" ref="U5:U14" si="3">T5-Q5</f>
-        <v>73.888888900000012</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21">
+        <f>V4*144*12</f>
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -756,11 +777,11 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <f>P6*100*6</f>
+        <v>18000</v>
+      </c>
+      <c r="E6">
         <f>Q6*100*6</f>
-        <v>18000</v>
-      </c>
-      <c r="E6">
-        <f>R6*100*6</f>
         <v>43800</v>
       </c>
       <c r="G6">
@@ -771,37 +792,41 @@
         <f t="shared" si="1"/>
         <v>25800</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6" t="s">
         <v>4</v>
       </c>
+      <c r="M6">
+        <v>7500</v>
+      </c>
       <c r="N6">
-        <v>7500</v>
+        <v>1500</v>
       </c>
       <c r="O6">
-        <v>1500</v>
-      </c>
-      <c r="P6">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
+      <c r="P6">
+        <v>30</v>
+      </c>
       <c r="Q6">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="R6">
-        <v>73</v>
+        <v>216000</v>
       </c>
       <c r="S6">
-        <v>216000</v>
+        <v>360</v>
       </c>
       <c r="T6">
-        <v>360</v>
-      </c>
-      <c r="U6">
         <f t="shared" si="3"/>
         <v>330</v>
       </c>
-    </row>
-    <row r="7" spans="2:21">
+      <c r="U6">
+        <f>V4*100*6</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -809,11 +834,11 @@
         <v>1.5</v>
       </c>
       <c r="D7">
+        <f>P7*80*6</f>
+        <v>120000</v>
+      </c>
+      <c r="E7">
         <f>Q7*80*6</f>
-        <v>120000</v>
-      </c>
-      <c r="E7">
-        <f>R7*80*6</f>
         <v>95520</v>
       </c>
       <c r="G7">
@@ -824,34 +849,38 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I7" t="s">
         <v>5</v>
       </c>
-      <c r="K7">
+      <c r="J7">
         <v>9600</v>
       </c>
-      <c r="P7">
+      <c r="O7">
         <f t="shared" si="2"/>
         <v>9600</v>
       </c>
+      <c r="P7">
+        <v>250</v>
+      </c>
       <c r="Q7">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="R7">
-        <v>199</v>
+        <v>230400</v>
       </c>
       <c r="S7">
-        <v>230400</v>
+        <v>480</v>
       </c>
       <c r="T7">
-        <v>480</v>
-      </c>
-      <c r="U7">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-    </row>
-    <row r="8" spans="2:21">
+      <c r="U7">
+        <f>V4*80*6</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -859,11 +888,11 @@
         <v>3</v>
       </c>
       <c r="D8">
+        <f>P8*168</f>
+        <v>6496</v>
+      </c>
+      <c r="E8">
         <f>Q8*168</f>
-        <v>6496</v>
-      </c>
-      <c r="E8">
-        <f>R8*168</f>
         <v>1848</v>
       </c>
       <c r="G8">
@@ -874,35 +903,39 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I8" t="s">
         <v>6</v>
       </c>
-      <c r="M8">
+      <c r="L8">
         <v>580</v>
       </c>
-      <c r="P8">
+      <c r="O8">
         <f t="shared" si="2"/>
         <v>580</v>
       </c>
-      <c r="Q8">
+      <c r="P8">
         <f>(580*24)/60/6</f>
         <v>38.666666666666664</v>
       </c>
+      <c r="Q8">
+        <v>11</v>
+      </c>
       <c r="R8">
-        <v>11</v>
+        <v>13920</v>
       </c>
       <c r="S8">
-        <v>13920</v>
+        <v>82.857142859999996</v>
       </c>
       <c r="T8">
-        <v>82.857142859999996</v>
-      </c>
-      <c r="U8">
         <f t="shared" si="3"/>
         <v>44.190476193333332</v>
       </c>
-    </row>
-    <row r="9" spans="2:21">
+      <c r="U8">
+        <f>V4*168</f>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -910,11 +943,11 @@
         <v>1.2</v>
       </c>
       <c r="D9">
+        <f>P9*60*6</f>
+        <v>64800</v>
+      </c>
+      <c r="E9">
         <f>Q9*60*6</f>
-        <v>64800</v>
-      </c>
-      <c r="E9">
-        <f>R9*60*6</f>
         <v>51840</v>
       </c>
       <c r="G9">
@@ -925,35 +958,39 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I9" t="s">
         <v>7</v>
       </c>
-      <c r="L9">
+      <c r="K9">
         <v>2700</v>
       </c>
-      <c r="P9">
+      <c r="O9">
         <f t="shared" si="2"/>
         <v>2700</v>
       </c>
-      <c r="Q9">
+      <c r="P9">
         <f>(2700*24)/60/6</f>
         <v>180</v>
       </c>
+      <c r="Q9">
+        <v>144</v>
+      </c>
       <c r="R9">
-        <v>144</v>
+        <v>64800</v>
       </c>
       <c r="S9">
-        <v>64800</v>
+        <v>180</v>
       </c>
       <c r="T9">
-        <v>180</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="U9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21">
+        <f>V4*60*6</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -961,11 +998,11 @@
         <v>1.4</v>
       </c>
       <c r="D10">
+        <f>P10*80*6</f>
+        <v>17280</v>
+      </c>
+      <c r="E10">
         <f>Q10*80*6</f>
-        <v>17280</v>
-      </c>
-      <c r="E10">
-        <f>R10*80*6</f>
         <v>4800</v>
       </c>
       <c r="G10">
@@ -976,34 +1013,38 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" t="s">
+      <c r="I10" t="s">
         <v>8</v>
       </c>
-      <c r="N10">
+      <c r="M10">
         <v>7500</v>
       </c>
-      <c r="P10">
+      <c r="O10">
         <f t="shared" si="2"/>
         <v>7500</v>
       </c>
+      <c r="P10">
+        <v>36</v>
+      </c>
       <c r="Q10">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="R10">
-        <v>10</v>
+        <v>180000</v>
       </c>
       <c r="S10">
-        <v>180000</v>
+        <v>375</v>
       </c>
       <c r="T10">
-        <v>375</v>
-      </c>
-      <c r="U10">
         <f t="shared" si="3"/>
         <v>339</v>
       </c>
-    </row>
-    <row r="11" spans="2:21">
+      <c r="U10">
+        <f>V4*80*6</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -1011,11 +1052,11 @@
         <v>2.4</v>
       </c>
       <c r="D11">
+        <f>P11*80*6</f>
+        <v>19200</v>
+      </c>
+      <c r="E11">
         <f>Q11*80*6</f>
-        <v>19200</v>
-      </c>
-      <c r="E11">
-        <f>R11*80*6</f>
         <v>67200</v>
       </c>
       <c r="G11">
@@ -1026,34 +1067,38 @@
         <f t="shared" si="1"/>
         <v>48000</v>
       </c>
-      <c r="J11" t="s">
+      <c r="I11" t="s">
         <v>9</v>
       </c>
-      <c r="N11">
+      <c r="M11">
         <v>8000</v>
       </c>
-      <c r="P11">
+      <c r="O11">
         <f t="shared" si="2"/>
         <v>8000</v>
       </c>
+      <c r="P11">
+        <v>40</v>
+      </c>
       <c r="Q11">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="R11">
-        <v>140</v>
+        <v>180000</v>
       </c>
       <c r="S11">
-        <v>180000</v>
+        <v>375</v>
       </c>
       <c r="T11">
-        <v>375</v>
-      </c>
-      <c r="U11">
         <f t="shared" si="3"/>
         <v>335</v>
       </c>
-    </row>
-    <row r="12" spans="2:21">
+      <c r="U11">
+        <f>V4*80*6</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -1061,11 +1106,11 @@
         <v>1</v>
       </c>
       <c r="D12">
+        <f>P12*300*6</f>
+        <v>30600</v>
+      </c>
+      <c r="E12">
         <f>Q12*300*6</f>
-        <v>30600</v>
-      </c>
-      <c r="E12">
-        <f>R12*300*6</f>
         <v>111600</v>
       </c>
       <c r="G12">
@@ -1076,37 +1121,41 @@
         <f t="shared" si="1"/>
         <v>81000</v>
       </c>
-      <c r="J12" t="s">
+      <c r="I12" t="s">
         <v>10</v>
       </c>
+      <c r="M12">
+        <v>7500</v>
+      </c>
       <c r="N12">
-        <v>7500</v>
+        <v>1500</v>
       </c>
       <c r="O12">
-        <v>1500</v>
-      </c>
-      <c r="P12">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
+      <c r="P12">
+        <v>17</v>
+      </c>
       <c r="Q12">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="R12">
-        <v>62</v>
+        <v>240000</v>
       </c>
       <c r="S12">
-        <v>240000</v>
+        <v>133.33333329999999</v>
       </c>
       <c r="T12">
-        <v>133.33333329999999</v>
-      </c>
-      <c r="U12">
         <f t="shared" si="3"/>
         <v>116.33333329999999</v>
       </c>
-    </row>
-    <row r="13" spans="2:21">
+      <c r="U12">
+        <f>V4*300*6</f>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -1114,11 +1163,11 @@
         <v>0.9</v>
       </c>
       <c r="D13">
+        <f>P13*300*6</f>
+        <v>45000</v>
+      </c>
+      <c r="E13">
         <f>Q13*300*6</f>
-        <v>45000</v>
-      </c>
-      <c r="E13">
-        <f>R13*300*6</f>
         <v>88200</v>
       </c>
       <c r="G13">
@@ -1129,34 +1178,38 @@
         <f t="shared" si="1"/>
         <v>43200</v>
       </c>
-      <c r="J13" t="s">
+      <c r="I13" t="s">
         <v>11</v>
       </c>
-      <c r="N13">
+      <c r="M13">
         <v>7500</v>
       </c>
-      <c r="P13">
+      <c r="O13">
         <f t="shared" si="2"/>
         <v>7500</v>
       </c>
+      <c r="P13">
+        <v>25</v>
+      </c>
       <c r="Q13">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="R13">
-        <v>49</v>
+        <v>228000</v>
       </c>
       <c r="S13">
-        <v>228000</v>
+        <v>126.66666669999999</v>
       </c>
       <c r="T13">
-        <v>126.66666669999999</v>
-      </c>
-      <c r="U13">
         <f t="shared" si="3"/>
         <v>101.66666669999999</v>
       </c>
-    </row>
-    <row r="14" spans="2:21">
+      <c r="U13">
+        <f>V4*300*6</f>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -1164,11 +1217,11 @@
         <v>0.85</v>
       </c>
       <c r="D14">
+        <f>P14*100*6</f>
+        <v>18000</v>
+      </c>
+      <c r="E14">
         <f>Q14*100*6</f>
-        <v>18000</v>
-      </c>
-      <c r="E14">
-        <f>R14*100*6</f>
         <v>30000</v>
       </c>
       <c r="G14">
@@ -1179,61 +1232,65 @@
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="J14" t="s">
+      <c r="I14" t="s">
         <v>12</v>
       </c>
+      <c r="M14">
+        <v>8000</v>
+      </c>
       <c r="N14">
-        <v>8000</v>
+        <v>1500</v>
       </c>
       <c r="O14">
-        <v>1500</v>
-      </c>
-      <c r="P14">
         <f t="shared" si="2"/>
         <v>9500</v>
       </c>
+      <c r="P14">
+        <v>30</v>
+      </c>
       <c r="Q14">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R14">
-        <v>50</v>
+        <v>216000</v>
       </c>
       <c r="S14">
-        <v>216000</v>
+        <v>360</v>
       </c>
       <c r="T14">
-        <v>360</v>
-      </c>
-      <c r="U14">
         <f t="shared" si="3"/>
         <v>330</v>
       </c>
-    </row>
-    <row r="15" spans="2:21">
+      <c r="U14">
+        <f>V4*100*6</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="P15">
+        <f>SUM(P4:P14)</f>
+        <v>751.66666666666674</v>
+      </c>
       <c r="Q15">
         <f>SUM(Q4:Q14)</f>
-        <v>751.66666666666674</v>
-      </c>
-      <c r="R15">
-        <f>SUM(R4:R14)</f>
         <v>900</v>
+      </c>
+      <c r="S15">
+        <f>SUM(S4:S14)</f>
+        <v>2878.4126984599998</v>
       </c>
       <c r="T15">
         <f>SUM(T4:T14)</f>
-        <v>2878.4126984599998</v>
-      </c>
-      <c r="U15">
-        <f>SUM(U4:U14)</f>
         <v>2126.7460317933333</v>
       </c>
     </row>
-    <row r="16" spans="2:21">
-      <c r="T16">
-        <f>T15-R15</f>
+    <row r="16" spans="2:22">
+      <c r="S16">
+        <f>S15-Q15</f>
         <v>1978.4126984599998</v>
       </c>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:19">
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1256,31 +1313,28 @@
         <v>25</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="N17" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="O17" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T17" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:20">
+    <row r="18" spans="2:19">
       <c r="B18" t="s">
         <v>2</v>
       </c>
@@ -1288,12 +1342,11 @@
         <f>SUM(C18:G18)</f>
         <v>0</v>
       </c>
-      <c r="I18">
-        <f>H4</f>
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <f>ABS(H18-I18)</f>
+      <c r="I18" t="e">
+        <f>ABS(H18-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
@@ -1303,17 +1356,14 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <f>D4/M4</f>
+        <v>9</v>
       </c>
       <c r="S18">
-        <f>D4/N4</f>
-        <v>9</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19">
       <c r="B19" t="s">
         <v>3</v>
       </c>
@@ -1324,17 +1374,16 @@
         <f t="shared" ref="H19:H28" si="4">SUM(C19:G19)</f>
         <v>134800</v>
       </c>
-      <c r="I19">
-        <f t="shared" ref="I19:I28" si="5">H5</f>
-        <v>133056</v>
-      </c>
-      <c r="J19">
-        <f t="shared" ref="J19:J28" si="6">ABS(H19-I19)</f>
-        <v>1744</v>
+      <c r="I19" t="e">
+        <f>ABS(H19-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O19">
+        <f>D5/J5</f>
+        <v>11.231999999999999</v>
       </c>
       <c r="P19">
-        <f>D5/K5</f>
-        <v>11.231999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1345,11 +1394,8 @@
       <c r="S19">
         <v>0</v>
       </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20">
+    </row>
+    <row r="20" spans="2:19">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -1357,13 +1403,12 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="5"/>
-        <v>25800</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="6"/>
-        <v>25800</v>
+      <c r="I20" t="e">
+        <f>ABS(H20-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1375,14 +1420,11 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <f t="shared" ref="T19:T28" si="7">D6/O6</f>
+        <f>D6/N6</f>
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:19">
       <c r="B21" t="s">
         <v>5</v>
       </c>
@@ -1393,17 +1435,16 @@
         <f t="shared" si="4"/>
         <v>24192</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="6"/>
-        <v>24192</v>
+      <c r="I21" t="e">
+        <f>ABS(H21-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O21">
+        <f>D7/J7</f>
+        <v>12.5</v>
       </c>
       <c r="P21">
-        <f t="shared" ref="P21" si="8">D7/K7</f>
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1414,11 +1455,8 @@
       <c r="S21">
         <v>0</v>
       </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20">
+    </row>
+    <row r="22" spans="2:19">
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -1426,12 +1464,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="6"/>
+      <c r="I22" t="e">
+        <f>ABS(H22-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
@@ -1446,11 +1483,8 @@
       <c r="S22">
         <v>0</v>
       </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20">
+    </row>
+    <row r="23" spans="2:19">
       <c r="B23" t="s">
         <v>7</v>
       </c>
@@ -1461,31 +1495,27 @@
         <f t="shared" si="4"/>
         <v>24840</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="6"/>
-        <v>24840</v>
+      <c r="I23" t="e">
+        <f>ABS(H23-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q23">
         <v>24</v>
       </c>
       <c r="R23">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20">
+    </row>
+    <row r="24" spans="2:19">
       <c r="B24" t="s">
         <v>8</v>
       </c>
@@ -1496,13 +1526,12 @@
         <f t="shared" si="4"/>
         <v>2400</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="6"/>
-        <v>2400</v>
+      <c r="I24" t="e">
+        <f>ABS(H24-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1511,17 +1540,14 @@
         <v>0</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <f>D10/M10</f>
+        <v>2.3039999999999998</v>
       </c>
       <c r="S24">
-        <f t="shared" ref="S19:S28" si="9">D10/N10</f>
-        <v>2.3039999999999998</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19">
       <c r="B25" t="s">
         <v>9</v>
       </c>
@@ -1532,13 +1558,12 @@
         <f t="shared" si="4"/>
         <v>11640</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="5"/>
-        <v>48000</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="6"/>
-        <v>36360</v>
+      <c r="I25" t="e">
+        <f>ABS(H25-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -1547,17 +1572,14 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <f>D11/M11</f>
+        <v>2.4</v>
       </c>
       <c r="S25">
-        <f t="shared" si="9"/>
-        <v>2.4</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -1565,13 +1587,12 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="5"/>
-        <v>81000</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="6"/>
-        <v>81000</v>
+      <c r="I26" t="e">
+        <f>ABS(H26-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -1580,17 +1601,14 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <f>D12/M12</f>
+        <v>4.08</v>
       </c>
       <c r="S26">
-        <f t="shared" si="9"/>
-        <v>4.08</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -1601,13 +1619,12 @@
         <f t="shared" si="4"/>
         <v>7200</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="5"/>
-        <v>43200</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="6"/>
-        <v>36000</v>
+      <c r="I27" t="e">
+        <f>ABS(H27-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -1616,17 +1633,14 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <f>D13/M13</f>
+        <v>6</v>
       </c>
       <c r="S27">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19">
       <c r="B28" t="s">
         <v>12</v>
       </c>
@@ -1637,13 +1651,12 @@
         <f t="shared" si="4"/>
         <v>5400</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="5"/>
-        <v>12000</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="6"/>
-        <v>6600</v>
+      <c r="I28" t="e">
+        <f>ABS(H28-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -1655,40 +1668,37 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <f>D14/O14</f>
+        <f>D14/N14</f>
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:20">
+    <row r="29" spans="2:19">
       <c r="B29" s="1"/>
-      <c r="O29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="O29">
+        <f>SUM(O18:O28)</f>
+        <v>23.731999999999999</v>
       </c>
       <c r="P29">
         <f>SUM(P18:P28)</f>
-        <v>23.731999999999999</v>
+        <v>24</v>
       </c>
       <c r="Q29">
-        <f>SUM(Q18:Q28)</f>
+        <f t="shared" ref="Q29:S29" si="5">SUM(Q18:Q28)</f>
         <v>24</v>
       </c>
       <c r="R29">
-        <f t="shared" ref="R29:T29" si="10">SUM(R18:R28)</f>
+        <f t="shared" si="5"/>
+        <v>23.783999999999999</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="S29">
-        <f t="shared" si="10"/>
-        <v>23.783999999999999</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20">
+    </row>
+    <row r="31" spans="2:19">
       <c r="B31" s="1" t="s">
         <v>16</v>
       </c>
@@ -1711,28 +1721,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:20">
+    <row r="32" spans="2:19">
       <c r="B32" t="s">
         <v>2</v>
       </c>
       <c r="C32">
-        <f>IF(AND(K4&gt;0,C18&gt;0),C18/K4 + 4,)</f>
+        <f>IF(AND(J4&gt;0,C18&gt;0),C18/J4 + 4,)</f>
         <v>0</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:G32" si="11">IF(AND(L4&gt;0,D18&gt;0),D18/L4 + 4,)</f>
+        <f>IF(AND(K4&gt;0,D18&gt;0),D18/K4 + 4,)</f>
         <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" si="11"/>
+        <f>IF(AND(L4&gt;0,E18&gt;0),E18/L4 + 4,)</f>
         <v>0</v>
       </c>
       <c r="F32">
-        <f t="shared" si="11"/>
+        <f>IF(AND(M4&gt;0,F18&gt;0),F18/M4 + 4,)</f>
         <v>0</v>
       </c>
       <c r="G32">
-        <f t="shared" si="11"/>
+        <f>IF(AND(N4&gt;0,G18&gt;0),G18/N4 + 4,)</f>
         <v>0</v>
       </c>
       <c r="H32">
@@ -1745,27 +1755,27 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <f>IF(AND(K5&gt;0,C19&gt;0),C19/K5 + 4,)</f>
+        <f>IF(AND(J5&gt;0,C19&gt;0),C19/J5 + 4,)</f>
         <v>17.48</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33:D34" si="12">IF(AND(L5&gt;0,D19&gt;0),D19/L5 + 4,)</f>
+        <f>IF(AND(K5&gt;0,D19&gt;0),D19/K5 + 4,)</f>
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E34" si="13">IF(AND(M5&gt;0,E19&gt;0),E19/M5 + 4,)</f>
+        <f>IF(AND(L5&gt;0,E19&gt;0),E19/L5 + 4,)</f>
         <v>0</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33:F34" si="14">IF(AND(N5&gt;0,F19&gt;0),F19/N5 + 4,)</f>
+        <f>IF(AND(M5&gt;0,F19&gt;0),F19/M5 + 4,)</f>
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33:G34" si="15">IF(AND(O5&gt;0,G19&gt;0),G19/O5 + 4,)</f>
+        <f>IF(AND(N5&gt;0,G19&gt;0),G19/N5 + 4,)</f>
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H42" si="16">SUM(C33:G33)</f>
+        <f t="shared" ref="H33:H42" si="6">SUM(C33:G33)</f>
         <v>17.48</v>
       </c>
     </row>
@@ -1774,27 +1784,27 @@
         <v>4</v>
       </c>
       <c r="C34">
-        <f>IF(AND(K6&gt;0,C20&gt;0),C20/K6 + 4,)</f>
+        <f>IF(AND(J6&gt;0,C20&gt;0),C20/J6 + 4,)</f>
         <v>0</v>
       </c>
       <c r="D34">
-        <f t="shared" si="12"/>
+        <f>IF(AND(K6&gt;0,D20&gt;0),D20/K6 + 4,)</f>
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" si="13"/>
+        <f>IF(AND(L6&gt;0,E20&gt;0),E20/L6 + 4,)</f>
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" si="14"/>
+        <f>IF(AND(M6&gt;0,F20&gt;0),F20/M6 + 4,)</f>
         <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" si="15"/>
+        <f>IF(AND(N6&gt;0,G20&gt;0),G20/N6 + 4,)</f>
         <v>0</v>
       </c>
       <c r="H34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1803,27 +1813,27 @@
         <v>5</v>
       </c>
       <c r="C35">
-        <f>IF(AND(K7&gt;0,C21&gt;0),C21/K7 + 4,)</f>
+        <f>IF(AND(J7&gt;0,C21&gt;0),C21/J7 + 4,)</f>
         <v>6.52</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35:D38" si="17">IF(AND(L7&gt;0,D21&gt;0),D21/L7 + 4,)</f>
+        <f>IF(AND(K7&gt;0,D21&gt;0),D21/K7 + 4,)</f>
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" ref="E35:E38" si="18">IF(AND(M7&gt;0,E21&gt;0),E21/M7 + 4,)</f>
+        <f>IF(AND(L7&gt;0,E21&gt;0),E21/L7 + 4,)</f>
         <v>0</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:F38" si="19">IF(AND(N7&gt;0,F21&gt;0),F21/N7 + 4,)</f>
+        <f>IF(AND(M7&gt;0,F21&gt;0),F21/M7 + 4,)</f>
         <v>0</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:G38" si="20">IF(AND(O7&gt;0,G21&gt;0),G21/O7 + 4,)</f>
+        <f>IF(AND(N7&gt;0,G21&gt;0),G21/N7 + 4,)</f>
         <v>0</v>
       </c>
       <c r="H35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>6.52</v>
       </c>
     </row>
@@ -1832,27 +1842,27 @@
         <v>6</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:C42" si="21">IF(AND(K8&gt;0,C22&gt;0),C22/K8 + 4,)</f>
+        <f>IF(AND(J8&gt;0,C22&gt;0),C22/J8 + 4,)</f>
         <v>0</v>
       </c>
       <c r="D36">
-        <f t="shared" si="17"/>
+        <f>IF(AND(K8&gt;0,D22&gt;0),D22/K8 + 4,)</f>
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="18"/>
+        <f>IF(AND(L8&gt;0,E22&gt;0),E22/L8 + 4,)</f>
         <v>0</v>
       </c>
       <c r="F36">
-        <f t="shared" si="19"/>
+        <f>IF(AND(M8&gt;0,F22&gt;0),F22/M8 + 4,)</f>
         <v>0</v>
       </c>
       <c r="G36">
-        <f t="shared" si="20"/>
+        <f>IF(AND(N8&gt;0,G22&gt;0),G22/N8 + 4,)</f>
         <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1861,27 +1871,27 @@
         <v>7</v>
       </c>
       <c r="C37">
-        <f t="shared" si="21"/>
+        <f>IF(AND(J9&gt;0,C23&gt;0),C23/J9 + 4,)</f>
         <v>0</v>
       </c>
       <c r="D37">
-        <f t="shared" si="17"/>
+        <f>IF(AND(K9&gt;0,D23&gt;0),D23/K9 + 4,)</f>
         <v>13.2</v>
       </c>
       <c r="E37">
-        <f t="shared" si="18"/>
+        <f>IF(AND(L9&gt;0,E23&gt;0),E23/L9 + 4,)</f>
         <v>0</v>
       </c>
       <c r="F37">
-        <f t="shared" si="19"/>
+        <f>IF(AND(M9&gt;0,F23&gt;0),F23/M9 + 4,)</f>
         <v>0</v>
       </c>
       <c r="G37">
-        <f t="shared" si="20"/>
+        <f>IF(AND(N9&gt;0,G23&gt;0),G23/N9 + 4,)</f>
         <v>0</v>
       </c>
       <c r="H37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>13.2</v>
       </c>
     </row>
@@ -1890,27 +1900,27 @@
         <v>8</v>
       </c>
       <c r="C38">
-        <f t="shared" si="21"/>
+        <f>IF(AND(J10&gt;0,C24&gt;0),C24/J10 + 4,)</f>
         <v>0</v>
       </c>
       <c r="D38">
-        <f t="shared" si="17"/>
+        <f>IF(AND(K10&gt;0,D24&gt;0),D24/K10 + 4,)</f>
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="18"/>
+        <f>IF(AND(L10&gt;0,E24&gt;0),E24/L10 + 4,)</f>
         <v>0</v>
       </c>
       <c r="F38">
-        <f t="shared" si="19"/>
+        <f>IF(AND(M10&gt;0,F24&gt;0),F24/M10 + 4,)</f>
         <v>4.32</v>
       </c>
       <c r="G38">
-        <f t="shared" si="20"/>
+        <f>IF(AND(N10&gt;0,G24&gt;0),G24/N10 + 4,)</f>
         <v>0</v>
       </c>
       <c r="H38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>4.32</v>
       </c>
     </row>
@@ -1919,27 +1929,27 @@
         <v>9</v>
       </c>
       <c r="C39">
-        <f t="shared" si="21"/>
+        <f>IF(AND(J11&gt;0,C25&gt;0),C25/J11 + 4,)</f>
         <v>0</v>
       </c>
       <c r="D39">
-        <f t="shared" ref="D39:D42" si="22">IF(AND(L11&gt;0,D25&gt;0),D25/L11 + 4,)</f>
+        <f>IF(AND(K11&gt;0,D25&gt;0),D25/K11 + 4,)</f>
         <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39:E42" si="23">IF(AND(M11&gt;0,E25&gt;0),E25/M11 + 4,)</f>
+        <f>IF(AND(L11&gt;0,E25&gt;0),E25/L11 + 4,)</f>
         <v>0</v>
       </c>
       <c r="F39">
-        <f t="shared" ref="F39:F42" si="24">IF(AND(N11&gt;0,F25&gt;0),F25/N11 + 4,)</f>
+        <f>IF(AND(M11&gt;0,F25&gt;0),F25/M11 + 4,)</f>
         <v>5.4550000000000001</v>
       </c>
       <c r="G39">
-        <f t="shared" ref="G39:G42" si="25">IF(AND(O11&gt;0,G25&gt;0),G25/O11 + 4,)</f>
+        <f>IF(AND(N11&gt;0,G25&gt;0),G25/N11 + 4,)</f>
         <v>0</v>
       </c>
       <c r="H39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>5.4550000000000001</v>
       </c>
     </row>
@@ -1948,27 +1958,27 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <f t="shared" si="21"/>
+        <f>IF(AND(J12&gt;0,C26&gt;0),C26/J12 + 4,)</f>
         <v>0</v>
       </c>
       <c r="D40">
-        <f t="shared" si="22"/>
+        <f>IF(AND(K12&gt;0,D26&gt;0),D26/K12 + 4,)</f>
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="23"/>
+        <f>IF(AND(L12&gt;0,E26&gt;0),E26/L12 + 4,)</f>
         <v>0</v>
       </c>
       <c r="F40">
-        <f t="shared" si="24"/>
+        <f>IF(AND(M12&gt;0,F26&gt;0),F26/M12 + 4,)</f>
         <v>0</v>
       </c>
       <c r="G40">
-        <f t="shared" si="25"/>
+        <f>IF(AND(N12&gt;0,G26&gt;0),G26/N12 + 4,)</f>
         <v>0</v>
       </c>
       <c r="H40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1977,27 +1987,27 @@
         <v>11</v>
       </c>
       <c r="C41">
-        <f t="shared" si="21"/>
+        <f>IF(AND(J13&gt;0,C27&gt;0),C27/J13 + 4,)</f>
         <v>0</v>
       </c>
       <c r="D41">
-        <f t="shared" si="22"/>
+        <f>IF(AND(K13&gt;0,D27&gt;0),D27/K13 + 4,)</f>
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="23"/>
+        <f>IF(AND(L13&gt;0,E27&gt;0),E27/L13 + 4,)</f>
         <v>0</v>
       </c>
       <c r="F41">
-        <f t="shared" si="24"/>
+        <f>IF(AND(M13&gt;0,F27&gt;0),F27/M13 + 4,)</f>
         <v>4.96</v>
       </c>
       <c r="G41">
-        <f t="shared" si="25"/>
+        <f>IF(AND(N13&gt;0,G27&gt;0),G27/N13 + 4,)</f>
         <v>0</v>
       </c>
       <c r="H41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>4.96</v>
       </c>
     </row>
@@ -2006,27 +2016,27 @@
         <v>12</v>
       </c>
       <c r="C42">
-        <f t="shared" si="21"/>
+        <f>IF(AND(J14&gt;0,C28&gt;0),C28/J14 + 4,)</f>
         <v>0</v>
       </c>
       <c r="D42">
-        <f t="shared" si="22"/>
+        <f>IF(AND(K14&gt;0,D28&gt;0),D28/K14 + 4,)</f>
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="23"/>
+        <f>IF(AND(L14&gt;0,E28&gt;0),E28/L14 + 4,)</f>
         <v>0</v>
       </c>
       <c r="F42">
-        <f t="shared" si="24"/>
+        <f>IF(AND(M14&gt;0,F28&gt;0),F28/M14 + 4,)</f>
         <v>4.6749999999999998</v>
       </c>
       <c r="G42">
-        <f t="shared" si="25"/>
+        <f>IF(AND(N14&gt;0,G28&gt;0),G28/N14 + 4,)</f>
         <v>0</v>
       </c>
       <c r="H42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v>4.6749999999999998</v>
       </c>
     </row>
@@ -2039,19 +2049,19 @@
         <v>24</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43:G43" si="26">SUM(D32:D42)</f>
+        <f t="shared" ref="D43:G43" si="7">SUM(D32:D42)</f>
         <v>13.2</v>
       </c>
       <c r="E43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="7"/>
         <v>19.41</v>
       </c>
       <c r="G43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H43">
@@ -2064,10 +2074,10 @@
     <mergeCell ref="D2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G14">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3128,10 +3138,10 @@
     <mergeCell ref="D2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G14">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Demandas_y_Asignacion.xlsx
+++ b/Demandas_y_Asignacion.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="42">
   <si>
     <t>Stock</t>
   </si>
@@ -213,7 +213,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -242,11 +266,11 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -254,11 +278,11 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -552,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:V43"/>
+  <dimension ref="B2:V86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" topLeftCell="C50" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1726,23 +1750,23 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <f>IF(AND(J4&gt;0,C18&gt;0),C18/J4 + 4,)</f>
+        <f t="shared" ref="C32:C42" si="6">IF(AND(J4&gt;0,C18&gt;0),C18/J4 + 4,)</f>
         <v>0</v>
       </c>
       <c r="D32">
-        <f>IF(AND(K4&gt;0,D18&gt;0),D18/K4 + 4,)</f>
+        <f t="shared" ref="D32:D42" si="7">IF(AND(K4&gt;0,D18&gt;0),D18/K4 + 4,)</f>
         <v>0</v>
       </c>
       <c r="E32">
-        <f>IF(AND(L4&gt;0,E18&gt;0),E18/L4 + 4,)</f>
+        <f t="shared" ref="E32:E42" si="8">IF(AND(L4&gt;0,E18&gt;0),E18/L4 + 4,)</f>
         <v>0</v>
       </c>
       <c r="F32">
-        <f>IF(AND(M4&gt;0,F18&gt;0),F18/M4 + 4,)</f>
+        <f t="shared" ref="F32:F42" si="9">IF(AND(M4&gt;0,F18&gt;0),F18/M4 + 4,)</f>
         <v>0</v>
       </c>
       <c r="G32">
-        <f>IF(AND(N4&gt;0,G18&gt;0),G18/N4 + 4,)</f>
+        <f t="shared" ref="G32:G42" si="10">IF(AND(N4&gt;0,G18&gt;0),G18/N4 + 4,)</f>
         <v>0</v>
       </c>
       <c r="H32">
@@ -1750,297 +1774,297 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:22">
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33">
-        <f>IF(AND(J5&gt;0,C19&gt;0),C19/J5 + 4,)</f>
+        <f t="shared" si="6"/>
         <v>17.48</v>
       </c>
       <c r="D33">
-        <f>IF(AND(K5&gt;0,D19&gt;0),D19/K5 + 4,)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f>IF(AND(L5&gt;0,E19&gt;0),E19/L5 + 4,)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F33">
-        <f>IF(AND(M5&gt;0,F19&gt;0),F19/M5 + 4,)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G33">
-        <f>IF(AND(N5&gt;0,G19&gt;0),G19/N5 + 4,)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H42" si="6">SUM(C33:G33)</f>
+        <f t="shared" ref="H33:H42" si="11">SUM(C33:G33)</f>
         <v>17.48</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:22">
       <c r="B34" t="s">
         <v>4</v>
       </c>
       <c r="C34">
-        <f>IF(AND(J6&gt;0,C20&gt;0),C20/J6 + 4,)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D34">
-        <f>IF(AND(K6&gt;0,D20&gt;0),D20/K6 + 4,)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E34">
-        <f>IF(AND(L6&gt;0,E20&gt;0),E20/L6 + 4,)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F34">
-        <f>IF(AND(M6&gt;0,F20&gt;0),F20/M6 + 4,)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G34">
-        <f>IF(AND(N6&gt;0,G20&gt;0),G20/N6 + 4,)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22">
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="C35">
-        <f>IF(AND(J7&gt;0,C21&gt;0),C21/J7 + 4,)</f>
+        <f t="shared" si="6"/>
         <v>6.52</v>
       </c>
       <c r="D35">
-        <f>IF(AND(K7&gt;0,D21&gt;0),D21/K7 + 4,)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E35">
-        <f>IF(AND(L7&gt;0,E21&gt;0),E21/L7 + 4,)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F35">
-        <f>IF(AND(M7&gt;0,F21&gt;0),F21/M7 + 4,)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G35">
-        <f>IF(AND(N7&gt;0,G21&gt;0),G21/N7 + 4,)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.52</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:22">
       <c r="B36" t="s">
         <v>6</v>
       </c>
       <c r="C36">
-        <f>IF(AND(J8&gt;0,C22&gt;0),C22/J8 + 4,)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D36">
-        <f>IF(AND(K8&gt;0,D22&gt;0),D22/K8 + 4,)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f>IF(AND(L8&gt;0,E22&gt;0),E22/L8 + 4,)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F36">
-        <f>IF(AND(M8&gt;0,F22&gt;0),F22/M8 + 4,)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G36">
-        <f>IF(AND(N8&gt;0,G22&gt;0),G22/N8 + 4,)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22">
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37">
-        <f>IF(AND(J9&gt;0,C23&gt;0),C23/J9 + 4,)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D37">
-        <f>IF(AND(K9&gt;0,D23&gt;0),D23/K9 + 4,)</f>
+        <f t="shared" si="7"/>
         <v>13.2</v>
       </c>
       <c r="E37">
-        <f>IF(AND(L9&gt;0,E23&gt;0),E23/L9 + 4,)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F37">
-        <f>IF(AND(M9&gt;0,F23&gt;0),F23/M9 + 4,)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G37">
-        <f>IF(AND(N9&gt;0,G23&gt;0),G23/N9 + 4,)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>13.2</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:22">
       <c r="B38" t="s">
         <v>8</v>
       </c>
       <c r="C38">
-        <f>IF(AND(J10&gt;0,C24&gt;0),C24/J10 + 4,)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D38">
-        <f>IF(AND(K10&gt;0,D24&gt;0),D24/K10 + 4,)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E38">
-        <f>IF(AND(L10&gt;0,E24&gt;0),E24/L10 + 4,)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F38">
-        <f>IF(AND(M10&gt;0,F24&gt;0),F24/M10 + 4,)</f>
+        <f t="shared" si="9"/>
         <v>4.32</v>
       </c>
       <c r="G38">
-        <f>IF(AND(N10&gt;0,G24&gt;0),G24/N10 + 4,)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4.32</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:22">
       <c r="B39" t="s">
         <v>9</v>
       </c>
       <c r="C39">
-        <f>IF(AND(J11&gt;0,C25&gt;0),C25/J11 + 4,)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D39">
-        <f>IF(AND(K11&gt;0,D25&gt;0),D25/K11 + 4,)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E39">
-        <f>IF(AND(L11&gt;0,E25&gt;0),E25/L11 + 4,)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F39">
-        <f>IF(AND(M11&gt;0,F25&gt;0),F25/M11 + 4,)</f>
+        <f t="shared" si="9"/>
         <v>5.4550000000000001</v>
       </c>
       <c r="G39">
-        <f>IF(AND(N11&gt;0,G25&gt;0),G25/N11 + 4,)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.4550000000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:22">
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="C40">
-        <f>IF(AND(J12&gt;0,C26&gt;0),C26/J12 + 4,)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D40">
-        <f>IF(AND(K12&gt;0,D26&gt;0),D26/K12 + 4,)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E40">
-        <f>IF(AND(L12&gt;0,E26&gt;0),E26/L12 + 4,)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F40">
-        <f>IF(AND(M12&gt;0,F26&gt;0),F26/M12 + 4,)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G40">
-        <f>IF(AND(N12&gt;0,G26&gt;0),G26/N12 + 4,)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H40">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22">
       <c r="B41" t="s">
         <v>11</v>
       </c>
       <c r="C41">
-        <f>IF(AND(J13&gt;0,C27&gt;0),C27/J13 + 4,)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D41">
-        <f>IF(AND(K13&gt;0,D27&gt;0),D27/K13 + 4,)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E41">
-        <f>IF(AND(L13&gt;0,E27&gt;0),E27/L13 + 4,)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F41">
-        <f>IF(AND(M13&gt;0,F27&gt;0),F27/M13 + 4,)</f>
+        <f t="shared" si="9"/>
         <v>4.96</v>
       </c>
       <c r="G41">
-        <f>IF(AND(N13&gt;0,G27&gt;0),G27/N13 + 4,)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4.96</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:22">
       <c r="B42" t="s">
         <v>12</v>
       </c>
       <c r="C42">
-        <f>IF(AND(J14&gt;0,C28&gt;0),C28/J14 + 4,)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D42">
-        <f>IF(AND(K14&gt;0,D28&gt;0),D28/K14 + 4,)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E42">
-        <f>IF(AND(L14&gt;0,E28&gt;0),E28/L14 + 4,)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F42">
-        <f>IF(AND(M14&gt;0,F28&gt;0),F28/M14 + 4,)</f>
+        <f t="shared" si="9"/>
         <v>4.6749999999999998</v>
       </c>
       <c r="G42">
-        <f>IF(AND(N14&gt;0,G28&gt;0),G28/N14 + 4,)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4.6749999999999998</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:22">
       <c r="B43" s="1" t="s">
         <v>26</v>
       </c>
@@ -2049,19 +2073,19 @@
         <v>24</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43:G43" si="7">SUM(D32:D42)</f>
+        <f t="shared" ref="D43:G43" si="12">SUM(D32:D42)</f>
         <v>13.2</v>
       </c>
       <c r="E43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>19.41</v>
       </c>
       <c r="G43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H43">
@@ -2069,15 +2093,1503 @@
         <v>56.61</v>
       </c>
     </row>
+    <row r="45" spans="2:22">
+      <c r="D45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="2:22">
+      <c r="B46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22">
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>0.6</v>
+      </c>
+      <c r="D47">
+        <f>P47*300*6</f>
+        <v>120600</v>
+      </c>
+      <c r="E47">
+        <f>Q47*300*6</f>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f>D47-E47</f>
+        <v>120600</v>
+      </c>
+      <c r="H47">
+        <f>IF(G47&lt;0,-G47,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>10000</v>
+      </c>
+      <c r="M47">
+        <v>8000</v>
+      </c>
+      <c r="N47">
+        <v>2000</v>
+      </c>
+      <c r="O47">
+        <f>J47+K47+L47+M47+N47</f>
+        <v>20000</v>
+      </c>
+      <c r="P47">
+        <v>67</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>480000</v>
+      </c>
+      <c r="S47">
+        <v>266.66666670000001</v>
+      </c>
+      <c r="T47">
+        <f>S47-P47</f>
+        <v>199.66666670000001</v>
+      </c>
+      <c r="U47">
+        <f>V47*300*6</f>
+        <v>5400</v>
+      </c>
+      <c r="V47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22">
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>0.7</v>
+      </c>
+      <c r="D48">
+        <f>P48*144*12</f>
+        <v>131328</v>
+      </c>
+      <c r="E48">
+        <f>Q48*144*12</f>
+        <v>67392</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ref="G48:G57" si="13">D48-E48</f>
+        <v>63936</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ref="H48:H57" si="14">IF(G48&lt;0,-G48,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>10000</v>
+      </c>
+      <c r="O48">
+        <f t="shared" ref="O48:O57" si="15">J48+K48+L48+M48+N48</f>
+        <v>10000</v>
+      </c>
+      <c r="P48">
+        <v>76</v>
+      </c>
+      <c r="Q48">
+        <v>39</v>
+      </c>
+      <c r="R48">
+        <v>240000</v>
+      </c>
+      <c r="S48">
+        <v>138.88888890000001</v>
+      </c>
+      <c r="T48">
+        <f t="shared" ref="T48:T57" si="16">S48-P48</f>
+        <v>62.888888900000012</v>
+      </c>
+      <c r="U48">
+        <f>V47*144*12</f>
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21">
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <f>P49*100*6</f>
+        <v>39000</v>
+      </c>
+      <c r="E49">
+        <f>Q49*100*6</f>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="13"/>
+        <v>39000</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49">
+        <v>7500</v>
+      </c>
+      <c r="N49">
+        <v>1500</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="15"/>
+        <v>9000</v>
+      </c>
+      <c r="P49">
+        <v>65</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>216000</v>
+      </c>
+      <c r="S49">
+        <v>360</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="16"/>
+        <v>295</v>
+      </c>
+      <c r="U49">
+        <f>V47*100*6</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21">
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>1.5</v>
+      </c>
+      <c r="D50">
+        <f>P50*80*6</f>
+        <v>118080</v>
+      </c>
+      <c r="E50">
+        <f>Q50*80*6</f>
+        <v>42720</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="13"/>
+        <v>75360</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>9600</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="15"/>
+        <v>9600</v>
+      </c>
+      <c r="P50">
+        <v>246</v>
+      </c>
+      <c r="Q50">
+        <v>89</v>
+      </c>
+      <c r="R50">
+        <v>230400</v>
+      </c>
+      <c r="S50">
+        <v>480</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="16"/>
+        <v>234</v>
+      </c>
+      <c r="U50">
+        <f>V47*80*6</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21">
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <f>P51*168</f>
+        <v>12768</v>
+      </c>
+      <c r="E51">
+        <f>Q51*168</f>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="13"/>
+        <v>12768</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>6</v>
+      </c>
+      <c r="L51">
+        <v>580</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="15"/>
+        <v>580</v>
+      </c>
+      <c r="P51">
+        <v>76</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>13920</v>
+      </c>
+      <c r="S51">
+        <v>82.857142859999996</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="16"/>
+        <v>6.8571428599999962</v>
+      </c>
+      <c r="U51">
+        <f>V47*168</f>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21">
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>1.2</v>
+      </c>
+      <c r="D52">
+        <f>P52*60*6</f>
+        <v>64800</v>
+      </c>
+      <c r="E52">
+        <f>Q52*60*6</f>
+        <v>18360</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="13"/>
+        <v>46440</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>7</v>
+      </c>
+      <c r="K52">
+        <v>2700</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="15"/>
+        <v>2700</v>
+      </c>
+      <c r="P52">
+        <f>(2700*24)/60/6</f>
+        <v>180</v>
+      </c>
+      <c r="Q52">
+        <v>51</v>
+      </c>
+      <c r="R52">
+        <v>64800</v>
+      </c>
+      <c r="S52">
+        <v>180</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <f>V47*60*6</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21">
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>1.4</v>
+      </c>
+      <c r="D53">
+        <f>P53*80*6</f>
+        <v>78240</v>
+      </c>
+      <c r="E53">
+        <f>Q53*80*6</f>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="13"/>
+        <v>78240</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>8</v>
+      </c>
+      <c r="M53">
+        <v>7500</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="15"/>
+        <v>7500</v>
+      </c>
+      <c r="P53">
+        <v>163</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>180000</v>
+      </c>
+      <c r="S53">
+        <v>375</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="16"/>
+        <v>212</v>
+      </c>
+      <c r="U53">
+        <f>V47*80*6</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21">
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>2.4</v>
+      </c>
+      <c r="D54">
+        <f>P54*80*6</f>
+        <v>27360</v>
+      </c>
+      <c r="E54">
+        <f>Q54*80*6</f>
+        <v>9600</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="13"/>
+        <v>17760</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>9</v>
+      </c>
+      <c r="M54">
+        <v>8000</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="15"/>
+        <v>8000</v>
+      </c>
+      <c r="P54">
+        <v>57</v>
+      </c>
+      <c r="Q54">
+        <v>20</v>
+      </c>
+      <c r="R54">
+        <v>180000</v>
+      </c>
+      <c r="S54">
+        <v>375</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="16"/>
+        <v>318</v>
+      </c>
+      <c r="U54">
+        <f>V47*80*6</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21">
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <f>P55*300*6</f>
+        <v>154800</v>
+      </c>
+      <c r="E55">
+        <f>Q55*300*6</f>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="13"/>
+        <v>154800</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>10</v>
+      </c>
+      <c r="M55">
+        <v>7500</v>
+      </c>
+      <c r="N55">
+        <v>1500</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="15"/>
+        <v>9000</v>
+      </c>
+      <c r="P55">
+        <v>86</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>240000</v>
+      </c>
+      <c r="S55">
+        <v>133.33333329999999</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="16"/>
+        <v>47.333333299999993</v>
+      </c>
+      <c r="U55">
+        <f>V47*300*6</f>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21">
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>0.9</v>
+      </c>
+      <c r="D56">
+        <f>P56*300*6</f>
+        <v>180000</v>
+      </c>
+      <c r="E56">
+        <f>Q56*300*6</f>
+        <v>23400</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="13"/>
+        <v>156600</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>11</v>
+      </c>
+      <c r="M56">
+        <v>7500</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="15"/>
+        <v>7500</v>
+      </c>
+      <c r="P56">
+        <v>100</v>
+      </c>
+      <c r="Q56">
+        <v>13</v>
+      </c>
+      <c r="R56">
+        <v>228000</v>
+      </c>
+      <c r="S56">
+        <v>126.66666669999999</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="16"/>
+        <v>26.666666699999993</v>
+      </c>
+      <c r="U56">
+        <f>V47*300*6</f>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21">
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>0.85</v>
+      </c>
+      <c r="D57">
+        <f>P57*100*6</f>
+        <v>85800</v>
+      </c>
+      <c r="E57">
+        <f>Q57*100*6</f>
+        <v>12000</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="13"/>
+        <v>73800</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M57">
+        <v>8000</v>
+      </c>
+      <c r="N57">
+        <v>1500</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="15"/>
+        <v>9500</v>
+      </c>
+      <c r="P57">
+        <v>143</v>
+      </c>
+      <c r="Q57">
+        <v>20</v>
+      </c>
+      <c r="R57">
+        <v>216000</v>
+      </c>
+      <c r="S57">
+        <v>360</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="16"/>
+        <v>217</v>
+      </c>
+      <c r="U57">
+        <f>V47*100*6</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21">
+      <c r="P58">
+        <f>SUM(P47:P57)</f>
+        <v>1259</v>
+      </c>
+      <c r="Q58">
+        <f>SUM(Q47:Q57)</f>
+        <v>232</v>
+      </c>
+      <c r="S58">
+        <f>SUM(S47:S57)</f>
+        <v>2878.4126984599998</v>
+      </c>
+      <c r="T58">
+        <f>SUM(T47:T57)</f>
+        <v>1619.41269846</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21">
+      <c r="S59">
+        <f>S58-Q58</f>
+        <v>2646.4126984599998</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21">
+      <c r="B60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21">
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <f>SUM(C61:G61)</f>
+        <v>0</v>
+      </c>
+      <c r="I61" t="e">
+        <f>ABS(H61-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21">
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>134800</v>
+      </c>
+      <c r="H62">
+        <f t="shared" ref="H62:H71" si="17">SUM(C62:G62)</f>
+        <v>134800</v>
+      </c>
+      <c r="I62" t="e">
+        <f>ABS(H62-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O62">
+        <v>12</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21">
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I63" t="e">
+        <f>ABS(H63-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21">
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>24192</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="17"/>
+        <v>24192</v>
+      </c>
+      <c r="I64" t="e">
+        <f>ABS(H64-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O64">
+        <v>12</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19">
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I65" t="e">
+        <f>ABS(H65-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19">
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <v>24840</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="17"/>
+        <v>24840</v>
+      </c>
+      <c r="I66" t="e">
+        <f>ABS(H66-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>16</v>
+      </c>
+      <c r="Q66">
+        <v>8</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19">
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67">
+        <v>2400</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="17"/>
+        <v>2400</v>
+      </c>
+      <c r="I67" t="e">
+        <f>ABS(H67-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>2</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19">
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68">
+        <v>11640</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="17"/>
+        <v>11640</v>
+      </c>
+      <c r="I68" t="e">
+        <f>ABS(H68-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>8</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19">
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I69" t="e">
+        <f>ABS(H69-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>6</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19">
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70">
+        <v>7200</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="17"/>
+        <v>7200</v>
+      </c>
+      <c r="I70" t="e">
+        <f>ABS(H70-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>6</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19">
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71">
+        <v>5400</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="17"/>
+        <v>5400</v>
+      </c>
+      <c r="I71" t="e">
+        <f>ABS(H71-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19">
+      <c r="B72" s="1"/>
+      <c r="N72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O72">
+        <f>SUM(O61:O71)</f>
+        <v>24</v>
+      </c>
+      <c r="P72">
+        <f>SUM(P61:P71)</f>
+        <v>16</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" ref="Q72:S72" si="18">SUM(Q61:Q71)</f>
+        <v>8</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="18"/>
+        <v>24</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19">
+      <c r="B74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19">
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ref="C75:C85" si="19">IF(AND(J47&gt;0,C61&gt;0),C61/J47 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ref="D75:D85" si="20">IF(AND(K47&gt;0,D61&gt;0),D61/K47 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ref="E75:E85" si="21">IF(AND(L47&gt;0,E61&gt;0),E61/L47 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ref="F75:F85" si="22">IF(AND(M47&gt;0,F61&gt;0),F61/M47 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <f t="shared" ref="G75:G85" si="23">IF(AND(N47&gt;0,G61&gt;0),G61/N47 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f>SUM(C75:G75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19">
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="19"/>
+        <v>17.48</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f t="shared" ref="H76:H85" si="24">SUM(C76:G76)</f>
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19">
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19">
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="19"/>
+        <v>6.52</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="24"/>
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19">
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19">
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="20"/>
+        <v>13.2</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="24"/>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="22"/>
+        <v>4.32</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="24"/>
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="22"/>
+        <v>5.4550000000000001</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="24"/>
+        <v>5.4550000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="22"/>
+        <v>4.96</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="24"/>
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="22"/>
+        <v>4.6749999999999998</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="24"/>
+        <v>4.6749999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86">
+        <f>SUM(C75:C85)</f>
+        <v>24</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ref="D86:G86" si="25">SUM(D75:D85)</f>
+        <v>13.2</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="25"/>
+        <v>19.41</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <f>SUM(H75:H85)</f>
+        <v>56.61</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D45:H45"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G14">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47:G57">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3138,10 +4650,10 @@
     <mergeCell ref="D2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G14">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Demandas_y_Asignacion.xlsx
+++ b/Demandas_y_Asignacion.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="18795" windowHeight="8445"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="18795" windowHeight="8445" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Dem. Alta" sheetId="2" r:id="rId1"/>
-    <sheet name="Dem. Baja" sheetId="4" r:id="rId2"/>
-    <sheet name="TASAS" sheetId="3" r:id="rId3"/>
+    <sheet name="Dem. Alta" sheetId="2" state="hidden" r:id="rId1"/>
+    <sheet name="Dem. Baja" sheetId="4" state="hidden" r:id="rId2"/>
+    <sheet name="TASAS" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Dem. Alta Sistema" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="Comparacion Alta" sheetId="6" r:id="rId5"/>
+    <sheet name="Comparacion Baja" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="60">
   <si>
     <t>Stock</t>
   </si>
@@ -143,12 +146,66 @@
   <si>
     <t>LOTE MIN</t>
   </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Total Util:</t>
+  </si>
+  <si>
+    <t>PRODUCTO</t>
+  </si>
+  <si>
+    <t>PRODUCIDO</t>
+  </si>
+  <si>
+    <t>BALANCE</t>
+  </si>
+  <si>
+    <t>Producido</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>Planificación Manual</t>
+  </si>
+  <si>
+    <t>Día de alta demanda</t>
+  </si>
+  <si>
+    <t>Tasas de produccion</t>
+  </si>
+  <si>
+    <t>Asignación Manual (horas)</t>
+  </si>
+  <si>
+    <t>Asignación Manual (botellas)</t>
+  </si>
+  <si>
+    <t>L1 Agua</t>
+  </si>
+  <si>
+    <t>L2 Agua</t>
+  </si>
+  <si>
+    <t>L3 Agua</t>
+  </si>
+  <si>
+    <t>L1 Gaseosa</t>
+  </si>
+  <si>
+    <t>L2 Gaseosa</t>
+  </si>
+  <si>
+    <t>Día de baja demanda</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +235,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -187,7 +283,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -195,11 +291,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -209,11 +320,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -223,18 +368,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -283,6 +416,78 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -578,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:V86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C50" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -588,7 +793,7 @@
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -597,7 +802,7 @@
     <col min="12" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.140625" bestFit="1" customWidth="1"/>
@@ -626,12 +831,14 @@
       <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>16</v>
@@ -691,12 +898,16 @@
         <f>Q4*300*6</f>
         <v>36000</v>
       </c>
+      <c r="F4">
+        <f>O32+P32+Q32+R32+S32</f>
+        <v>0</v>
+      </c>
       <c r="G4">
-        <f>D4-E4</f>
+        <f>(D4+F4)-E4</f>
         <v>36000</v>
       </c>
       <c r="H4">
-        <f>IF(G4&lt;0,-G4,0)</f>
+        <f>F4*C4</f>
         <v>0</v>
       </c>
       <c r="I4" t="s">
@@ -754,13 +965,17 @@
         <f>Q5*144*12</f>
         <v>245376</v>
       </c>
+      <c r="F5">
+        <f>O33+P33+Q33+R33+S33</f>
+        <v>240000</v>
+      </c>
       <c r="G5">
-        <f t="shared" ref="G5:G14" si="0">D5-E5</f>
-        <v>-133056</v>
+        <f t="shared" ref="G5:G14" si="0">(D5+F5)-E5</f>
+        <v>106944</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H14" si="1">IF(G5&lt;0,-G5,0)</f>
-        <v>133056</v>
+        <f t="shared" ref="H5:H14" si="1">F5*C5</f>
+        <v>168000</v>
       </c>
       <c r="I5" t="s">
         <v>3</v>
@@ -808,13 +1023,17 @@
         <f>Q6*100*6</f>
         <v>43800</v>
       </c>
+      <c r="F6">
+        <f>O34+P34+Q34+R34+S34</f>
+        <v>24000</v>
+      </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>-25800</v>
+        <v>-1800</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>25800</v>
+        <v>24000</v>
       </c>
       <c r="I6" t="s">
         <v>4</v>
@@ -865,6 +1084,10 @@
         <f>Q7*80*6</f>
         <v>95520</v>
       </c>
+      <c r="F7">
+        <f>O35+P35+Q35+R35+S35</f>
+        <v>0</v>
+      </c>
       <c r="G7">
         <f t="shared" si="0"/>
         <v>24480</v>
@@ -919,6 +1142,10 @@
         <f>Q8*168</f>
         <v>1848</v>
       </c>
+      <c r="F8">
+        <f>O36+P36+Q36+R36+S36</f>
+        <v>0</v>
+      </c>
       <c r="G8">
         <f t="shared" si="0"/>
         <v>4648</v>
@@ -974,13 +1201,17 @@
         <f>Q9*60*6</f>
         <v>51840</v>
       </c>
+      <c r="F9">
+        <f>O37+P37+Q37+R37+S37</f>
+        <v>64800</v>
+      </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>12960</v>
+        <v>77760</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>77760</v>
       </c>
       <c r="I9" t="s">
         <v>7</v>
@@ -1029,13 +1260,17 @@
         <f>Q10*80*6</f>
         <v>4800</v>
       </c>
+      <c r="F10">
+        <f>O38+P38+Q38+R38+S38</f>
+        <v>15000</v>
+      </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>12480</v>
+        <v>27480</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="I10" t="s">
         <v>8</v>
@@ -1083,13 +1318,17 @@
         <f>Q11*80*6</f>
         <v>67200</v>
       </c>
+      <c r="F11">
+        <f>O39+P39+Q39+R39+S39</f>
+        <v>48000</v>
+      </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>-48000</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>48000</v>
+        <v>115200</v>
       </c>
       <c r="I11" t="s">
         <v>9</v>
@@ -1137,13 +1376,17 @@
         <f>Q12*300*6</f>
         <v>111600</v>
       </c>
+      <c r="F12">
+        <f>O40+P40+Q40+R40+S40</f>
+        <v>52500</v>
+      </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>-81000</v>
+        <v>-28500</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>81000</v>
+        <v>52500</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
@@ -1194,13 +1437,17 @@
         <f>Q13*300*6</f>
         <v>88200</v>
       </c>
+      <c r="F13">
+        <f>O41+P41+Q41+R41+S41</f>
+        <v>37500</v>
+      </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>-43200</v>
+        <v>-5700</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>43200</v>
+        <v>33750</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
@@ -1248,13 +1495,17 @@
         <f>Q14*100*6</f>
         <v>30000</v>
       </c>
+      <c r="F14">
+        <f>O42+P42+Q42+R42+S42</f>
+        <v>12000</v>
+      </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>-12000</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>12000</v>
+        <v>10200</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
@@ -1291,6 +1542,13 @@
       </c>
     </row>
     <row r="15" spans="2:22">
+      <c r="G15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="6">
+        <f>SUM(H4:H14)</f>
+        <v>502410</v>
+      </c>
       <c r="P15">
         <f>SUM(P4:P14)</f>
         <v>751.66666666666674</v>
@@ -1314,7 +1572,7 @@
         <v>1978.4126984599998</v>
       </c>
     </row>
-    <row r="17" spans="2:19">
+    <row r="17" spans="2:21">
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1343,22 +1601,22 @@
         <v>39</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21">
       <c r="B18" t="s">
         <v>2</v>
       </c>
@@ -1380,14 +1638,13 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <f>D4/M4</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:19">
+    <row r="19" spans="2:21">
       <c r="B19" t="s">
         <v>3</v>
       </c>
@@ -1403,8 +1660,7 @@
         <v>#REF!</v>
       </c>
       <c r="O19">
-        <f>D5/J5</f>
-        <v>11.231999999999999</v>
+        <v>24</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1419,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:19">
+    <row r="20" spans="2:21">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -1444,11 +1700,10 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <f>D6/N6</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21">
       <c r="B21" t="s">
         <v>5</v>
       </c>
@@ -1464,8 +1719,7 @@
         <v>#REF!</v>
       </c>
       <c r="O21">
-        <f>D7/J7</f>
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1480,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:19">
+    <row r="22" spans="2:21">
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -1508,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:19">
+    <row r="23" spans="2:21">
       <c r="B23" t="s">
         <v>7</v>
       </c>
@@ -1539,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:19">
+    <row r="24" spans="2:21">
       <c r="B24" t="s">
         <v>8</v>
       </c>
@@ -1564,14 +1818,13 @@
         <v>0</v>
       </c>
       <c r="R24">
-        <f>D10/M10</f>
-        <v>2.3039999999999998</v>
+        <v>2</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:19">
+    <row r="25" spans="2:21">
       <c r="B25" t="s">
         <v>9</v>
       </c>
@@ -1596,14 +1849,13 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <f>D11/M11</f>
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:19">
+    <row r="26" spans="2:21">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -1625,14 +1877,13 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <f>D12/M12</f>
-        <v>4.08</v>
+        <v>7</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:19">
+    <row r="27" spans="2:21">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -1657,14 +1908,13 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <f>D13/M13</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:19">
+    <row r="28" spans="2:21">
       <c r="B28" t="s">
         <v>12</v>
       </c>
@@ -1692,18 +1942,17 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <f>D14/N14</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21">
       <c r="B29" s="1"/>
       <c r="N29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="O29">
         <f>SUM(O18:O28)</f>
-        <v>23.731999999999999</v>
+        <v>24</v>
       </c>
       <c r="P29">
         <f>SUM(P18:P28)</f>
@@ -1715,14 +1964,14 @@
       </c>
       <c r="R29">
         <f t="shared" si="5"/>
-        <v>23.783999999999999</v>
+        <v>20</v>
       </c>
       <c r="S29">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:19">
+    <row r="31" spans="2:21">
       <c r="B31" s="1" t="s">
         <v>16</v>
       </c>
@@ -1744,8 +1993,28 @@
       <c r="H31" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="2:19">
+      <c r="N31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="2:21">
       <c r="B32" t="s">
         <v>2</v>
       </c>
@@ -1771,6 +2040,26 @@
       </c>
       <c r="H32">
         <f>SUM(C32:G32)</f>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f>O18*J4</f>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" ref="P32:S32" si="11">P18*K4</f>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1799,8 +2088,28 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H42" si="11">SUM(C33:G33)</f>
+        <f t="shared" ref="H33:H42" si="12">SUM(C33:G33)</f>
         <v>17.48</v>
+      </c>
+      <c r="O33">
+        <f>O19*J5</f>
+        <v>240000</v>
+      </c>
+      <c r="P33">
+        <f t="shared" ref="P33:P43" si="13">P19*K5</f>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" ref="Q33:Q43" si="14">Q19*L5</f>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" ref="R33:R43" si="15">R19*M5</f>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" ref="S33:S43" si="16">S19*N5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:22">
@@ -1828,8 +2137,28 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" ref="O33:O43" si="17">O20*J6</f>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="16"/>
+        <v>24000</v>
       </c>
     </row>
     <row r="35" spans="2:22">
@@ -1857,8 +2186,28 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.52</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:22">
@@ -1886,7 +2235,27 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -1915,8 +2284,28 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13.2</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="13"/>
+        <v>64800</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:22">
@@ -1944,8 +2333,28 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.32</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="15"/>
+        <v>15000</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:22">
@@ -1973,8 +2382,28 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.4550000000000001</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="15"/>
+        <v>48000</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:22">
@@ -2002,7 +2431,27 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="15"/>
+        <v>52500</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -2031,8 +2480,28 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.96</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="15"/>
+        <v>37500</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:22">
@@ -2060,8 +2529,28 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.6749999999999998</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="16"/>
+        <v>12000</v>
       </c>
     </row>
     <row r="43" spans="2:22">
@@ -2073,24 +2562,44 @@
         <v>24</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43:G43" si="12">SUM(D32:D42)</f>
+        <f t="shared" ref="D43:G43" si="18">SUM(D32:D42)</f>
         <v>13.2</v>
       </c>
       <c r="E43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>19.41</v>
       </c>
       <c r="G43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H43">
         <f>SUM(H32:H42)</f>
         <v>56.61</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:22">
@@ -2244,11 +2753,11 @@
         <v>67392</v>
       </c>
       <c r="G48">
-        <f t="shared" ref="G48:G57" si="13">D48-E48</f>
+        <f t="shared" ref="G48:G57" si="19">D48-E48</f>
         <v>63936</v>
       </c>
       <c r="H48">
-        <f t="shared" ref="H48:H57" si="14">IF(G48&lt;0,-G48,0)</f>
+        <f t="shared" ref="H48:H57" si="20">IF(G48&lt;0,-G48,0)</f>
         <v>0</v>
       </c>
       <c r="I48" t="s">
@@ -2258,7 +2767,7 @@
         <v>10000</v>
       </c>
       <c r="O48">
-        <f t="shared" ref="O48:O57" si="15">J48+K48+L48+M48+N48</f>
+        <f t="shared" ref="O48:O57" si="21">J48+K48+L48+M48+N48</f>
         <v>10000</v>
       </c>
       <c r="P48">
@@ -2274,7 +2783,7 @@
         <v>138.88888890000001</v>
       </c>
       <c r="T48">
-        <f t="shared" ref="T48:T57" si="16">S48-P48</f>
+        <f t="shared" ref="T48:T57" si="22">S48-P48</f>
         <v>62.888888900000012</v>
       </c>
       <c r="U48">
@@ -2298,11 +2807,11 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>39000</v>
       </c>
       <c r="H49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I49" t="s">
@@ -2315,7 +2824,7 @@
         <v>1500</v>
       </c>
       <c r="O49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>9000</v>
       </c>
       <c r="P49">
@@ -2331,7 +2840,7 @@
         <v>360</v>
       </c>
       <c r="T49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>295</v>
       </c>
       <c r="U49">
@@ -2355,11 +2864,11 @@
         <v>42720</v>
       </c>
       <c r="G50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>75360</v>
       </c>
       <c r="H50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I50" t="s">
@@ -2369,7 +2878,7 @@
         <v>9600</v>
       </c>
       <c r="O50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>9600</v>
       </c>
       <c r="P50">
@@ -2385,7 +2894,7 @@
         <v>480</v>
       </c>
       <c r="T50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>234</v>
       </c>
       <c r="U50">
@@ -2409,11 +2918,11 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>12768</v>
       </c>
       <c r="H51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I51" t="s">
@@ -2423,7 +2932,7 @@
         <v>580</v>
       </c>
       <c r="O51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>580</v>
       </c>
       <c r="P51">
@@ -2439,7 +2948,7 @@
         <v>82.857142859999996</v>
       </c>
       <c r="T51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>6.8571428599999962</v>
       </c>
       <c r="U51">
@@ -2463,11 +2972,11 @@
         <v>18360</v>
       </c>
       <c r="G52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>46440</v>
       </c>
       <c r="H52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I52" t="s">
@@ -2477,7 +2986,7 @@
         <v>2700</v>
       </c>
       <c r="O52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>2700</v>
       </c>
       <c r="P52">
@@ -2494,7 +3003,7 @@
         <v>180</v>
       </c>
       <c r="T52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U52">
@@ -2518,11 +3027,11 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>78240</v>
       </c>
       <c r="H53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I53" t="s">
@@ -2532,7 +3041,7 @@
         <v>7500</v>
       </c>
       <c r="O53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="P53">
@@ -2548,7 +3057,7 @@
         <v>375</v>
       </c>
       <c r="T53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>212</v>
       </c>
       <c r="U53">
@@ -2572,11 +3081,11 @@
         <v>9600</v>
       </c>
       <c r="G54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>17760</v>
       </c>
       <c r="H54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I54" t="s">
@@ -2586,7 +3095,7 @@
         <v>8000</v>
       </c>
       <c r="O54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>8000</v>
       </c>
       <c r="P54">
@@ -2602,7 +3111,7 @@
         <v>375</v>
       </c>
       <c r="T54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>318</v>
       </c>
       <c r="U54">
@@ -2626,11 +3135,11 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>154800</v>
       </c>
       <c r="H55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I55" t="s">
@@ -2643,7 +3152,7 @@
         <v>1500</v>
       </c>
       <c r="O55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>9000</v>
       </c>
       <c r="P55">
@@ -2659,7 +3168,7 @@
         <v>133.33333329999999</v>
       </c>
       <c r="T55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>47.333333299999993</v>
       </c>
       <c r="U55">
@@ -2683,11 +3192,11 @@
         <v>23400</v>
       </c>
       <c r="G56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>156600</v>
       </c>
       <c r="H56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I56" t="s">
@@ -2697,7 +3206,7 @@
         <v>7500</v>
       </c>
       <c r="O56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="P56">
@@ -2713,7 +3222,7 @@
         <v>126.66666669999999</v>
       </c>
       <c r="T56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>26.666666699999993</v>
       </c>
       <c r="U56">
@@ -2737,11 +3246,11 @@
         <v>12000</v>
       </c>
       <c r="G57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>73800</v>
       </c>
       <c r="H57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I57" t="s">
@@ -2754,7 +3263,7 @@
         <v>1500</v>
       </c>
       <c r="O57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>9500</v>
       </c>
       <c r="P57">
@@ -2770,7 +3279,7 @@
         <v>360</v>
       </c>
       <c r="T57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>217</v>
       </c>
       <c r="U57">
@@ -2882,7 +3391,7 @@
         <v>134800</v>
       </c>
       <c r="H62">
-        <f t="shared" ref="H62:H71" si="17">SUM(C62:G62)</f>
+        <f t="shared" ref="H62:H71" si="23">SUM(C62:G62)</f>
         <v>134800</v>
       </c>
       <c r="I62" t="e">
@@ -2910,7 +3419,7 @@
         <v>4</v>
       </c>
       <c r="H63">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I63" t="e">
@@ -2941,7 +3450,7 @@
         <v>24192</v>
       </c>
       <c r="H64">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>24192</v>
       </c>
       <c r="I64" t="e">
@@ -2969,7 +3478,7 @@
         <v>6</v>
       </c>
       <c r="H65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I65" t="e">
@@ -3000,7 +3509,7 @@
         <v>24840</v>
       </c>
       <c r="H66">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>24840</v>
       </c>
       <c r="I66" t="e">
@@ -3031,7 +3540,7 @@
         <v>2400</v>
       </c>
       <c r="H67">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2400</v>
       </c>
       <c r="I67" t="e">
@@ -3062,7 +3571,7 @@
         <v>11640</v>
       </c>
       <c r="H68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>11640</v>
       </c>
       <c r="I68" t="e">
@@ -3090,7 +3599,7 @@
         <v>10</v>
       </c>
       <c r="H69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I69" t="e">
@@ -3121,7 +3630,7 @@
         <v>7200</v>
       </c>
       <c r="H70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>7200</v>
       </c>
       <c r="I70" t="e">
@@ -3152,7 +3661,7 @@
         <v>5400</v>
       </c>
       <c r="H71">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>5400</v>
       </c>
       <c r="I71" t="e">
@@ -3189,15 +3698,15 @@
         <v>16</v>
       </c>
       <c r="Q72">
-        <f t="shared" ref="Q72:S72" si="18">SUM(Q61:Q71)</f>
+        <f t="shared" ref="Q72:S72" si="24">SUM(Q61:Q71)</f>
         <v>8</v>
       </c>
       <c r="R72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>24</v>
       </c>
       <c r="S72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -3229,23 +3738,23 @@
         <v>2</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75:C85" si="19">IF(AND(J47&gt;0,C61&gt;0),C61/J47 + 4,)</f>
+        <f t="shared" ref="C75:C85" si="25">IF(AND(J47&gt;0,C61&gt;0),C61/J47 + 4,)</f>
         <v>0</v>
       </c>
       <c r="D75">
-        <f t="shared" ref="D75:D85" si="20">IF(AND(K47&gt;0,D61&gt;0),D61/K47 + 4,)</f>
+        <f t="shared" ref="D75:D85" si="26">IF(AND(K47&gt;0,D61&gt;0),D61/K47 + 4,)</f>
         <v>0</v>
       </c>
       <c r="E75">
-        <f t="shared" ref="E75:E85" si="21">IF(AND(L47&gt;0,E61&gt;0),E61/L47 + 4,)</f>
+        <f t="shared" ref="E75:E85" si="27">IF(AND(L47&gt;0,E61&gt;0),E61/L47 + 4,)</f>
         <v>0</v>
       </c>
       <c r="F75">
-        <f t="shared" ref="F75:F85" si="22">IF(AND(M47&gt;0,F61&gt;0),F61/M47 + 4,)</f>
+        <f t="shared" ref="F75:F85" si="28">IF(AND(M47&gt;0,F61&gt;0),F61/M47 + 4,)</f>
         <v>0</v>
       </c>
       <c r="G75">
-        <f t="shared" ref="G75:G85" si="23">IF(AND(N47&gt;0,G61&gt;0),G61/N47 + 4,)</f>
+        <f t="shared" ref="G75:G85" si="29">IF(AND(N47&gt;0,G61&gt;0),G61/N47 + 4,)</f>
         <v>0</v>
       </c>
       <c r="H75">
@@ -3258,27 +3767,27 @@
         <v>3</v>
       </c>
       <c r="C76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>17.48</v>
       </c>
       <c r="D76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F76">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G76">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H76">
-        <f t="shared" ref="H76:H85" si="24">SUM(C76:G76)</f>
+        <f t="shared" ref="H76:H85" si="30">SUM(C76:G76)</f>
         <v>17.48</v>
       </c>
     </row>
@@ -3287,27 +3796,27 @@
         <v>4</v>
       </c>
       <c r="C77">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="D77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E77">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F77">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G77">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H77">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -3316,27 +3825,27 @@
         <v>5</v>
       </c>
       <c r="C78">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>6.52</v>
       </c>
       <c r="D78">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F78">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G78">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H78">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>6.52</v>
       </c>
     </row>
@@ -3345,27 +3854,27 @@
         <v>6</v>
       </c>
       <c r="C79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="D79">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F79">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G79">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H79">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -3374,27 +3883,27 @@
         <v>7</v>
       </c>
       <c r="C80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="D80">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>13.2</v>
       </c>
       <c r="E80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F80">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G80">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H80">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>13.2</v>
       </c>
     </row>
@@ -3403,27 +3912,27 @@
         <v>8</v>
       </c>
       <c r="C81">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="D81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F81">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>4.32</v>
       </c>
       <c r="G81">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H81">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>4.32</v>
       </c>
     </row>
@@ -3432,27 +3941,27 @@
         <v>9</v>
       </c>
       <c r="C82">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="D82">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F82">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>5.4550000000000001</v>
       </c>
       <c r="G82">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H82">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>5.4550000000000001</v>
       </c>
     </row>
@@ -3461,27 +3970,27 @@
         <v>10</v>
       </c>
       <c r="C83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="D83">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F83">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G83">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H83">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -3490,27 +3999,27 @@
         <v>11</v>
       </c>
       <c r="C84">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="D84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E84">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>4.96</v>
       </c>
       <c r="G84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H84">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>4.96</v>
       </c>
     </row>
@@ -3519,27 +4028,27 @@
         <v>12</v>
       </c>
       <c r="C85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="D85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E85">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F85">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>4.6749999999999998</v>
       </c>
       <c r="G85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H85">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>4.6749999999999998</v>
       </c>
     </row>
@@ -3552,19 +4061,19 @@
         <v>24</v>
       </c>
       <c r="D86">
-        <f t="shared" ref="D86:G86" si="25">SUM(D75:D85)</f>
+        <f t="shared" ref="D86:G86" si="31">SUM(D75:D85)</f>
         <v>13.2</v>
       </c>
       <c r="E86">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F86">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>19.41</v>
       </c>
       <c r="G86">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H86">
@@ -3577,24 +4086,16 @@
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D45:H45"/>
   </mergeCells>
-  <conditionalFormatting sqref="G4:G14">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="G47:G57 G4:G14">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G47:G57">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4650,10 +5151,10 @@
     <mergeCell ref="D2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G14">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4855,4 +5356,6590 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:V86"/>
+  <sheetViews>
+    <sheetView topLeftCell="D52" workbookViewId="0">
+      <selection activeCell="S61" sqref="O61:S71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22">
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:22">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f>P4*300*6</f>
+        <v>72000</v>
+      </c>
+      <c r="E4">
+        <f>Q4*300*6</f>
+        <v>36000</v>
+      </c>
+      <c r="F4">
+        <f>O32+P32+Q32+R32+S32</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>(D4+F4)-E4</f>
+        <v>36000</v>
+      </c>
+      <c r="H4">
+        <f>F4*C4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>10000</v>
+      </c>
+      <c r="M4">
+        <v>8000</v>
+      </c>
+      <c r="N4">
+        <v>2000</v>
+      </c>
+      <c r="O4">
+        <f>J4+K4+L4+M4+N4</f>
+        <v>20000</v>
+      </c>
+      <c r="P4">
+        <v>40</v>
+      </c>
+      <c r="Q4">
+        <v>20</v>
+      </c>
+      <c r="R4">
+        <v>480000</v>
+      </c>
+      <c r="S4">
+        <v>266.66666670000001</v>
+      </c>
+      <c r="T4">
+        <f>S4-P4</f>
+        <v>226.66666670000001</v>
+      </c>
+      <c r="U4">
+        <f>V4*300*6</f>
+        <v>5400</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1.2</v>
+      </c>
+      <c r="D5">
+        <f>P5*144*12</f>
+        <v>112320</v>
+      </c>
+      <c r="E5">
+        <f>Q5*144*12</f>
+        <v>245376</v>
+      </c>
+      <c r="F5">
+        <f>O33+P33+Q33+R33+S33</f>
+        <v>240000</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G14" si="0">(D5+F5)-E5</f>
+        <v>106944</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H14" si="1">F5*C5</f>
+        <v>288000</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>10000</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O14" si="2">J5+K5+L5+M5+N5</f>
+        <v>10000</v>
+      </c>
+      <c r="P5">
+        <v>65</v>
+      </c>
+      <c r="Q5">
+        <v>142</v>
+      </c>
+      <c r="R5">
+        <v>240000</v>
+      </c>
+      <c r="S5">
+        <v>138.88888890000001</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5:T14" si="3">S5-P5</f>
+        <v>73.888888900000012</v>
+      </c>
+      <c r="U5">
+        <f>V4*144*12</f>
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1.8</v>
+      </c>
+      <c r="D6">
+        <f>P6*100*6</f>
+        <v>18000</v>
+      </c>
+      <c r="E6">
+        <f>Q6*100*6</f>
+        <v>43800</v>
+      </c>
+      <c r="F6">
+        <f>O34+P34+Q34+R34+S34</f>
+        <v>27000</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>48600</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>7500</v>
+      </c>
+      <c r="N6">
+        <v>1500</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>9000</v>
+      </c>
+      <c r="P6">
+        <v>30</v>
+      </c>
+      <c r="Q6">
+        <v>73</v>
+      </c>
+      <c r="R6">
+        <v>216000</v>
+      </c>
+      <c r="S6">
+        <v>360</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="3"/>
+        <v>330</v>
+      </c>
+      <c r="U6">
+        <f>V4*100*6</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f>P7*80*6</f>
+        <v>120000</v>
+      </c>
+      <c r="E7">
+        <f>Q7*80*6</f>
+        <v>95520</v>
+      </c>
+      <c r="F7">
+        <f>O35+P35+Q35+R35+S35</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>24480</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>9600</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>9600</v>
+      </c>
+      <c r="P7">
+        <v>250</v>
+      </c>
+      <c r="Q7">
+        <v>199</v>
+      </c>
+      <c r="R7">
+        <v>230400</v>
+      </c>
+      <c r="S7">
+        <v>480</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+      <c r="U7">
+        <f>V4*80*6</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <f>P8*168</f>
+        <v>6496</v>
+      </c>
+      <c r="E8">
+        <f>Q8*168</f>
+        <v>1848</v>
+      </c>
+      <c r="F8">
+        <f>O36+P36+Q36+R36+S36</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>4648</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>580</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>580</v>
+      </c>
+      <c r="P8">
+        <f>(580*24)/60/6</f>
+        <v>38.666666666666664</v>
+      </c>
+      <c r="Q8">
+        <v>11</v>
+      </c>
+      <c r="R8">
+        <v>13920</v>
+      </c>
+      <c r="S8">
+        <v>82.857142859999996</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="3"/>
+        <v>44.190476193333332</v>
+      </c>
+      <c r="U8">
+        <f>V4*168</f>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1.2</v>
+      </c>
+      <c r="D9">
+        <f>P9*60*6</f>
+        <v>64800</v>
+      </c>
+      <c r="E9">
+        <f>Q9*60*6</f>
+        <v>51840</v>
+      </c>
+      <c r="F9">
+        <f>O37+P37+Q37+R37+S37</f>
+        <v>64800</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>77760</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>77760</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>2700</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
+      <c r="P9">
+        <f>(2700*24)/60/6</f>
+        <v>180</v>
+      </c>
+      <c r="Q9">
+        <v>144</v>
+      </c>
+      <c r="R9">
+        <v>64800</v>
+      </c>
+      <c r="S9">
+        <v>180</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f>V4*60*6</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1.8</v>
+      </c>
+      <c r="D10">
+        <f>P10*80*6</f>
+        <v>17280</v>
+      </c>
+      <c r="E10">
+        <f>Q10*80*6</f>
+        <v>4800</v>
+      </c>
+      <c r="F10">
+        <f>O38+P38+Q38+R38+S38</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>12480</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>7500</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>7500</v>
+      </c>
+      <c r="P10">
+        <v>36</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+      <c r="R10">
+        <v>180000</v>
+      </c>
+      <c r="S10">
+        <v>375</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="3"/>
+        <v>339</v>
+      </c>
+      <c r="U10">
+        <f>V4*80*6</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D11">
+        <f>P11*80*6</f>
+        <v>19200</v>
+      </c>
+      <c r="E11">
+        <f>Q11*80*6</f>
+        <v>67200</v>
+      </c>
+      <c r="F11">
+        <f>O39+P39+Q39+R39+S39</f>
+        <v>48000</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>52800.000000000007</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>8000</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>8000</v>
+      </c>
+      <c r="P11">
+        <v>40</v>
+      </c>
+      <c r="Q11">
+        <v>140</v>
+      </c>
+      <c r="R11">
+        <v>180000</v>
+      </c>
+      <c r="S11">
+        <v>375</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="3"/>
+        <v>335</v>
+      </c>
+      <c r="U11">
+        <f>V4*80*6</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>1.8</v>
+      </c>
+      <c r="D12">
+        <f>P12*300*6</f>
+        <v>30600</v>
+      </c>
+      <c r="E12">
+        <f>Q12*300*6</f>
+        <v>111600</v>
+      </c>
+      <c r="F12">
+        <f>O40+P40+Q40+R40+S40</f>
+        <v>52500</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>-28500</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>94500</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>7500</v>
+      </c>
+      <c r="N12">
+        <v>1500</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>9000</v>
+      </c>
+      <c r="P12">
+        <v>17</v>
+      </c>
+      <c r="Q12">
+        <v>62</v>
+      </c>
+      <c r="R12">
+        <v>240000</v>
+      </c>
+      <c r="S12">
+        <v>133.33333329999999</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="3"/>
+        <v>116.33333329999999</v>
+      </c>
+      <c r="U12">
+        <f>V4*300*6</f>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f>P13*300*6</f>
+        <v>45000</v>
+      </c>
+      <c r="E13">
+        <f>Q13*300*6</f>
+        <v>88200</v>
+      </c>
+      <c r="F13">
+        <f>O41+P41+Q41+R41+S41</f>
+        <v>52500</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>9300</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>52500</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <v>7500</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>7500</v>
+      </c>
+      <c r="P13">
+        <v>25</v>
+      </c>
+      <c r="Q13">
+        <v>49</v>
+      </c>
+      <c r="R13">
+        <v>228000</v>
+      </c>
+      <c r="S13">
+        <v>126.66666669999999</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="3"/>
+        <v>101.66666669999999</v>
+      </c>
+      <c r="U13">
+        <f>V4*300*6</f>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f>P14*100*6</f>
+        <v>18000</v>
+      </c>
+      <c r="E14">
+        <f>Q14*100*6</f>
+        <v>30000</v>
+      </c>
+      <c r="F14">
+        <f>O42+P42+Q42+R42+S42</f>
+        <v>9000</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>-3000</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>8000</v>
+      </c>
+      <c r="N14">
+        <v>1500</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>9500</v>
+      </c>
+      <c r="P14">
+        <v>30</v>
+      </c>
+      <c r="Q14">
+        <v>50</v>
+      </c>
+      <c r="R14">
+        <v>216000</v>
+      </c>
+      <c r="S14">
+        <v>360</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="3"/>
+        <v>330</v>
+      </c>
+      <c r="U14">
+        <f>V4*100*6</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="G15" s="1"/>
+      <c r="H15" s="6">
+        <f>SUM(H4:H14)</f>
+        <v>632160</v>
+      </c>
+      <c r="P15">
+        <f>SUM(P4:P14)</f>
+        <v>751.66666666666674</v>
+      </c>
+      <c r="Q15">
+        <f>SUM(Q4:Q14)</f>
+        <v>900</v>
+      </c>
+      <c r="S15">
+        <f>SUM(S4:S14)</f>
+        <v>2878.4126984599998</v>
+      </c>
+      <c r="T15">
+        <f>SUM(T4:T14)</f>
+        <v>2126.7460317933333</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="S16">
+        <f>S15-Q15</f>
+        <v>1978.4126984599998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" ht="30">
+      <c r="B17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="N17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="B18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>72000</v>
+      </c>
+      <c r="E18" s="7">
+        <v>36000</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>36000</v>
+      </c>
+      <c r="H18">
+        <f>C18*F18</f>
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="B19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>1.2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>112320</v>
+      </c>
+      <c r="E19" s="7">
+        <v>245376</v>
+      </c>
+      <c r="F19" s="7">
+        <v>133056</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:H28" si="4">C19*F19</f>
+        <v>159667.19999999998</v>
+      </c>
+      <c r="I19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>24</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21">
+      <c r="B20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>1.8</v>
+      </c>
+      <c r="D20" s="7">
+        <v>18000</v>
+      </c>
+      <c r="E20" s="7">
+        <v>43800</v>
+      </c>
+      <c r="F20" s="7">
+        <v>66000</v>
+      </c>
+      <c r="G20" s="8">
+        <v>40200</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>118800</v>
+      </c>
+      <c r="I20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="B21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7">
+        <v>120000</v>
+      </c>
+      <c r="E21" s="7">
+        <v>95520</v>
+      </c>
+      <c r="F21" s="7">
+        <v>25866</v>
+      </c>
+      <c r="G21" s="8">
+        <v>50346</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>51732</v>
+      </c>
+      <c r="I21" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="B22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" s="7">
+        <v>6496</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1848</v>
+      </c>
+      <c r="F22" s="7">
+        <v>13920</v>
+      </c>
+      <c r="G22" s="8">
+        <v>18568</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>69600</v>
+      </c>
+      <c r="I22" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21">
+      <c r="B23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>1.2</v>
+      </c>
+      <c r="D23" s="7">
+        <v>64800</v>
+      </c>
+      <c r="E23" s="7">
+        <v>51840</v>
+      </c>
+      <c r="F23" s="7">
+        <v>64800</v>
+      </c>
+      <c r="G23" s="8">
+        <v>77760</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>77760</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>24</v>
+      </c>
+      <c r="Q23">
+        <v>24</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="B24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>1.8</v>
+      </c>
+      <c r="D24" s="7">
+        <v>17280</v>
+      </c>
+      <c r="E24" s="7">
+        <v>4800</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <v>12480</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21">
+      <c r="B25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D25" s="7">
+        <v>19200</v>
+      </c>
+      <c r="E25" s="7">
+        <v>67200</v>
+      </c>
+      <c r="F25" s="7">
+        <v>48000</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>52800.000000000007</v>
+      </c>
+      <c r="I25" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>6</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21">
+      <c r="B26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>1.8</v>
+      </c>
+      <c r="D26" s="7">
+        <v>30600</v>
+      </c>
+      <c r="E26" s="7">
+        <v>111600</v>
+      </c>
+      <c r="F26" s="7">
+        <v>5400</v>
+      </c>
+      <c r="G26" s="9">
+        <v>-75600</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>9720</v>
+      </c>
+      <c r="I26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>7</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21">
+      <c r="B27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7">
+        <v>45000</v>
+      </c>
+      <c r="E27" s="7">
+        <v>88200</v>
+      </c>
+      <c r="F27" s="7">
+        <v>5400</v>
+      </c>
+      <c r="G27" s="9">
+        <v>-37800</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>5400</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>7</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" ht="19.5" customHeight="1">
+      <c r="B28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>18000</v>
+      </c>
+      <c r="E28" s="7">
+        <v>30000</v>
+      </c>
+      <c r="F28" s="7">
+        <v>45600</v>
+      </c>
+      <c r="G28" s="8">
+        <v>33600</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>91200</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21">
+      <c r="B29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29">
+        <f>SUM(H18:H28)</f>
+        <v>636679.19999999995</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29">
+        <f>SUM(O18:O28)</f>
+        <v>24</v>
+      </c>
+      <c r="P29">
+        <f>SUM(P18:P28)</f>
+        <v>24</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" ref="Q29:S29" si="5">SUM(Q18:Q28)</f>
+        <v>24</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="N31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="2:21">
+      <c r="O32">
+        <f>O18*J4</f>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" ref="P32:S43" si="6">P18*K4</f>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22">
+      <c r="O33">
+        <f>O19*J5</f>
+        <v>240000</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22">
+      <c r="O34">
+        <f t="shared" ref="O34:O43" si="7">O20*J6</f>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="6"/>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22">
+      <c r="O35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22">
+      <c r="O36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22">
+      <c r="O37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="6"/>
+        <v>64800</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22">
+      <c r="O38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22">
+      <c r="O39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="6"/>
+        <v>48000</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22">
+      <c r="O40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="6"/>
+        <v>52500</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22">
+      <c r="O41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="6"/>
+        <v>52500</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22">
+      <c r="O42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="6"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22">
+      <c r="B43" s="1"/>
+      <c r="O43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22">
+      <c r="D45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="2:22">
+      <c r="B46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22">
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>0.6</v>
+      </c>
+      <c r="D47">
+        <f>P47*300*6</f>
+        <v>120600</v>
+      </c>
+      <c r="E47">
+        <f>Q47*300*6</f>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f>D47-E47</f>
+        <v>120600</v>
+      </c>
+      <c r="H47">
+        <f>IF(G47&lt;0,-G47,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>10000</v>
+      </c>
+      <c r="M47">
+        <v>8000</v>
+      </c>
+      <c r="N47">
+        <v>2000</v>
+      </c>
+      <c r="O47">
+        <f>J47+K47+L47+M47+N47</f>
+        <v>20000</v>
+      </c>
+      <c r="P47">
+        <v>67</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>480000</v>
+      </c>
+      <c r="S47">
+        <v>266.66666670000001</v>
+      </c>
+      <c r="T47">
+        <f>S47-P47</f>
+        <v>199.66666670000001</v>
+      </c>
+      <c r="U47">
+        <f>V47*300*6</f>
+        <v>5400</v>
+      </c>
+      <c r="V47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22">
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>0.7</v>
+      </c>
+      <c r="D48">
+        <f>P48*144*12</f>
+        <v>131328</v>
+      </c>
+      <c r="E48">
+        <f>Q48*144*12</f>
+        <v>67392</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ref="G48:G57" si="8">D48-E48</f>
+        <v>63936</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ref="H48:H57" si="9">IF(G48&lt;0,-G48,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>10000</v>
+      </c>
+      <c r="O48">
+        <f t="shared" ref="O48:O57" si="10">J48+K48+L48+M48+N48</f>
+        <v>10000</v>
+      </c>
+      <c r="P48">
+        <v>76</v>
+      </c>
+      <c r="Q48">
+        <v>39</v>
+      </c>
+      <c r="R48">
+        <v>240000</v>
+      </c>
+      <c r="S48">
+        <v>138.88888890000001</v>
+      </c>
+      <c r="T48">
+        <f t="shared" ref="T48:T57" si="11">S48-P48</f>
+        <v>62.888888900000012</v>
+      </c>
+      <c r="U48">
+        <f>V47*144*12</f>
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21">
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <f>P49*100*6</f>
+        <v>39000</v>
+      </c>
+      <c r="E49">
+        <f>Q49*100*6</f>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="8"/>
+        <v>39000</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49">
+        <v>7500</v>
+      </c>
+      <c r="N49">
+        <v>1500</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="10"/>
+        <v>9000</v>
+      </c>
+      <c r="P49">
+        <v>65</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>216000</v>
+      </c>
+      <c r="S49">
+        <v>360</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="11"/>
+        <v>295</v>
+      </c>
+      <c r="U49">
+        <f>V47*100*6</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21">
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>1.5</v>
+      </c>
+      <c r="D50">
+        <f>P50*80*6</f>
+        <v>118080</v>
+      </c>
+      <c r="E50">
+        <f>Q50*80*6</f>
+        <v>42720</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="8"/>
+        <v>75360</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>9600</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="10"/>
+        <v>9600</v>
+      </c>
+      <c r="P50">
+        <v>246</v>
+      </c>
+      <c r="Q50">
+        <v>89</v>
+      </c>
+      <c r="R50">
+        <v>230400</v>
+      </c>
+      <c r="S50">
+        <v>480</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="11"/>
+        <v>234</v>
+      </c>
+      <c r="U50">
+        <f>V47*80*6</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21">
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <f>P51*168</f>
+        <v>12768</v>
+      </c>
+      <c r="E51">
+        <f>Q51*168</f>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="8"/>
+        <v>12768</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>6</v>
+      </c>
+      <c r="L51">
+        <v>580</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="10"/>
+        <v>580</v>
+      </c>
+      <c r="P51">
+        <v>76</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>13920</v>
+      </c>
+      <c r="S51">
+        <v>82.857142859999996</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="11"/>
+        <v>6.8571428599999962</v>
+      </c>
+      <c r="U51">
+        <f>V47*168</f>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21">
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>1.2</v>
+      </c>
+      <c r="D52">
+        <f>P52*60*6</f>
+        <v>64800</v>
+      </c>
+      <c r="E52">
+        <f>Q52*60*6</f>
+        <v>18360</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="8"/>
+        <v>46440</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>7</v>
+      </c>
+      <c r="K52">
+        <v>2700</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="10"/>
+        <v>2700</v>
+      </c>
+      <c r="P52">
+        <f>(2700*24)/60/6</f>
+        <v>180</v>
+      </c>
+      <c r="Q52">
+        <v>51</v>
+      </c>
+      <c r="R52">
+        <v>64800</v>
+      </c>
+      <c r="S52">
+        <v>180</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <f>V47*60*6</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21">
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>1.4</v>
+      </c>
+      <c r="D53">
+        <f>P53*80*6</f>
+        <v>78240</v>
+      </c>
+      <c r="E53">
+        <f>Q53*80*6</f>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="8"/>
+        <v>78240</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>8</v>
+      </c>
+      <c r="M53">
+        <v>7500</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="10"/>
+        <v>7500</v>
+      </c>
+      <c r="P53">
+        <v>163</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>180000</v>
+      </c>
+      <c r="S53">
+        <v>375</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="11"/>
+        <v>212</v>
+      </c>
+      <c r="U53">
+        <f>V47*80*6</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21">
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>2.4</v>
+      </c>
+      <c r="D54">
+        <f>P54*80*6</f>
+        <v>27360</v>
+      </c>
+      <c r="E54">
+        <f>Q54*80*6</f>
+        <v>9600</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="8"/>
+        <v>17760</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>9</v>
+      </c>
+      <c r="M54">
+        <v>8000</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="10"/>
+        <v>8000</v>
+      </c>
+      <c r="P54">
+        <v>57</v>
+      </c>
+      <c r="Q54">
+        <v>20</v>
+      </c>
+      <c r="R54">
+        <v>180000</v>
+      </c>
+      <c r="S54">
+        <v>375</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="11"/>
+        <v>318</v>
+      </c>
+      <c r="U54">
+        <f>V47*80*6</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21">
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <f>P55*300*6</f>
+        <v>154800</v>
+      </c>
+      <c r="E55">
+        <f>Q55*300*6</f>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="8"/>
+        <v>154800</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>10</v>
+      </c>
+      <c r="M55">
+        <v>7500</v>
+      </c>
+      <c r="N55">
+        <v>1500</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="10"/>
+        <v>9000</v>
+      </c>
+      <c r="P55">
+        <v>86</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>240000</v>
+      </c>
+      <c r="S55">
+        <v>133.33333329999999</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="11"/>
+        <v>47.333333299999993</v>
+      </c>
+      <c r="U55">
+        <f>V47*300*6</f>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21">
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>0.9</v>
+      </c>
+      <c r="D56">
+        <f>P56*300*6</f>
+        <v>180000</v>
+      </c>
+      <c r="E56">
+        <f>Q56*300*6</f>
+        <v>23400</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="8"/>
+        <v>156600</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>11</v>
+      </c>
+      <c r="M56">
+        <v>7500</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="10"/>
+        <v>7500</v>
+      </c>
+      <c r="P56">
+        <v>100</v>
+      </c>
+      <c r="Q56">
+        <v>13</v>
+      </c>
+      <c r="R56">
+        <v>228000</v>
+      </c>
+      <c r="S56">
+        <v>126.66666669999999</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="11"/>
+        <v>26.666666699999993</v>
+      </c>
+      <c r="U56">
+        <f>V47*300*6</f>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21">
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>0.85</v>
+      </c>
+      <c r="D57">
+        <f>P57*100*6</f>
+        <v>85800</v>
+      </c>
+      <c r="E57">
+        <f>Q57*100*6</f>
+        <v>12000</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="8"/>
+        <v>73800</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M57">
+        <v>8000</v>
+      </c>
+      <c r="N57">
+        <v>1500</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="10"/>
+        <v>9500</v>
+      </c>
+      <c r="P57">
+        <v>143</v>
+      </c>
+      <c r="Q57">
+        <v>20</v>
+      </c>
+      <c r="R57">
+        <v>216000</v>
+      </c>
+      <c r="S57">
+        <v>360</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="11"/>
+        <v>217</v>
+      </c>
+      <c r="U57">
+        <f>V47*100*6</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21">
+      <c r="P58">
+        <f>SUM(P47:P57)</f>
+        <v>1259</v>
+      </c>
+      <c r="Q58">
+        <f>SUM(Q47:Q57)</f>
+        <v>232</v>
+      </c>
+      <c r="S58">
+        <f>SUM(S47:S57)</f>
+        <v>2878.4126984599998</v>
+      </c>
+      <c r="T58">
+        <f>SUM(T47:T57)</f>
+        <v>1619.41269846</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21">
+      <c r="S59">
+        <f>S58-Q58</f>
+        <v>2646.4126984599998</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21">
+      <c r="B60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21">
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <f>SUM(C61:G61)</f>
+        <v>0</v>
+      </c>
+      <c r="I61" t="e">
+        <f>ABS(H61-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21">
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>134800</v>
+      </c>
+      <c r="H62">
+        <f t="shared" ref="H62:H71" si="12">SUM(C62:G62)</f>
+        <v>134800</v>
+      </c>
+      <c r="I62" t="e">
+        <f>ABS(H62-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O62">
+        <v>12</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21">
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I63" t="e">
+        <f>ABS(H63-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21">
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>24192</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="12"/>
+        <v>24192</v>
+      </c>
+      <c r="I64" t="e">
+        <f>ABS(H64-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O64">
+        <v>12</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19">
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I65" t="e">
+        <f>ABS(H65-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19">
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <v>24840</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="12"/>
+        <v>24840</v>
+      </c>
+      <c r="I66" t="e">
+        <f>ABS(H66-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>16</v>
+      </c>
+      <c r="Q66">
+        <v>8</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19">
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67">
+        <v>2400</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="12"/>
+        <v>2400</v>
+      </c>
+      <c r="I67" t="e">
+        <f>ABS(H67-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>2</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19">
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68">
+        <v>11640</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="12"/>
+        <v>11640</v>
+      </c>
+      <c r="I68" t="e">
+        <f>ABS(H68-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>8</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19">
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I69" t="e">
+        <f>ABS(H69-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>6</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19">
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70">
+        <v>7200</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="12"/>
+        <v>7200</v>
+      </c>
+      <c r="I70" t="e">
+        <f>ABS(H70-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>6</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19">
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71">
+        <v>5400</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="12"/>
+        <v>5400</v>
+      </c>
+      <c r="I71" t="e">
+        <f>ABS(H71-#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19">
+      <c r="B72" s="1"/>
+      <c r="N72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O72">
+        <f>SUM(O61:O71)</f>
+        <v>24</v>
+      </c>
+      <c r="P72">
+        <f>SUM(P61:P71)</f>
+        <v>16</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" ref="Q72:S72" si="13">SUM(Q61:Q71)</f>
+        <v>8</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="13"/>
+        <v>24</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19">
+      <c r="B74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19">
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ref="C75:G85" si="14">IF(AND(J47&gt;0,C61&gt;0),C61/J47 + 4,)</f>
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f>SUM(C75:G75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19">
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="14"/>
+        <v>17.48</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f t="shared" ref="H76:H85" si="15">SUM(C76:G76)</f>
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19">
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19">
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="14"/>
+        <v>6.52</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="15"/>
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19">
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19">
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="14"/>
+        <v>13.2</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="15"/>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="14"/>
+        <v>4.32</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="15"/>
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="14"/>
+        <v>5.4550000000000001</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="15"/>
+        <v>5.4550000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="14"/>
+        <v>4.96</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="15"/>
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="14"/>
+        <v>4.6749999999999998</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="15"/>
+        <v>4.6749999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86">
+        <f>SUM(C75:C85)</f>
+        <v>24</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ref="D86:G86" si="16">SUM(D75:D85)</f>
+        <v>13.2</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="16"/>
+        <v>19.41</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <f>SUM(H75:H85)</f>
+        <v>56.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D45:H45"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G47:G57 G4:G14">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:T52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:19">
+      <c r="C3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="N4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="F5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>72000</v>
+      </c>
+      <c r="D7">
+        <v>36000</v>
+      </c>
+      <c r="F7">
+        <f>T41</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>(C7+F7)-D7</f>
+        <v>36000</v>
+      </c>
+      <c r="H7">
+        <f>B7*F7</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>(C7+I7)-D7</f>
+        <v>36000</v>
+      </c>
+      <c r="K7">
+        <f>B7*I7</f>
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>10000</v>
+      </c>
+      <c r="R7">
+        <v>8000</v>
+      </c>
+      <c r="S7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1.2</v>
+      </c>
+      <c r="C8">
+        <v>112320</v>
+      </c>
+      <c r="D8">
+        <v>245376</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F17" si="0">T42</f>
+        <v>240000</v>
+      </c>
+      <c r="G8">
+        <f>(C8+F8)-D8</f>
+        <v>106944</v>
+      </c>
+      <c r="H8">
+        <f>B8*F8</f>
+        <v>288000</v>
+      </c>
+      <c r="I8">
+        <v>133056</v>
+      </c>
+      <c r="J8">
+        <f>(C8+I8)-D8</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>B8*I8</f>
+        <v>159667.19999999998</v>
+      </c>
+      <c r="N8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1.8</v>
+      </c>
+      <c r="C9">
+        <v>18000</v>
+      </c>
+      <c r="D9">
+        <v>43800</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>27000</v>
+      </c>
+      <c r="G9">
+        <f>(C9+F9)-D9</f>
+        <v>1200</v>
+      </c>
+      <c r="H9">
+        <f>B9*F9</f>
+        <v>48600</v>
+      </c>
+      <c r="I9">
+        <v>66000</v>
+      </c>
+      <c r="J9">
+        <f>(C9+I9)-D9</f>
+        <v>40200</v>
+      </c>
+      <c r="K9">
+        <f>B9*I9</f>
+        <v>118800</v>
+      </c>
+      <c r="N9" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>7500</v>
+      </c>
+      <c r="S9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>120000</v>
+      </c>
+      <c r="D10">
+        <v>95520</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>(C10+F10)-D10</f>
+        <v>24480</v>
+      </c>
+      <c r="H10">
+        <f>B10*F10</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>25866</v>
+      </c>
+      <c r="J10">
+        <f>(C10+I10)-D10</f>
+        <v>50346</v>
+      </c>
+      <c r="K10">
+        <f>B10*I10</f>
+        <v>51732</v>
+      </c>
+      <c r="N10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>6496</v>
+      </c>
+      <c r="D11">
+        <v>1848</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>(C11+F11)-D11</f>
+        <v>4648</v>
+      </c>
+      <c r="H11">
+        <f>B11*F11</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>13920</v>
+      </c>
+      <c r="J11">
+        <f>(C11+I11)-D11</f>
+        <v>18568</v>
+      </c>
+      <c r="K11">
+        <f>B11*I11</f>
+        <v>69600</v>
+      </c>
+      <c r="N11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>1.2</v>
+      </c>
+      <c r="C12">
+        <v>64800</v>
+      </c>
+      <c r="D12">
+        <v>51840</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>64800</v>
+      </c>
+      <c r="G12">
+        <f>(C12+F12)-D12</f>
+        <v>77760</v>
+      </c>
+      <c r="H12">
+        <f>B12*F12</f>
+        <v>77760</v>
+      </c>
+      <c r="I12">
+        <v>64800</v>
+      </c>
+      <c r="J12">
+        <f>(C12+I12)-D12</f>
+        <v>77760</v>
+      </c>
+      <c r="K12">
+        <f>B12*I12</f>
+        <v>77760</v>
+      </c>
+      <c r="N12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>1.8</v>
+      </c>
+      <c r="C13">
+        <v>17280</v>
+      </c>
+      <c r="D13">
+        <v>4800</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>(C13+F13)-D13</f>
+        <v>12480</v>
+      </c>
+      <c r="H13">
+        <f>B13*F13</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f>(C13+I13)-D13</f>
+        <v>12480</v>
+      </c>
+      <c r="K13">
+        <f>B13*I13</f>
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>8</v>
+      </c>
+      <c r="R13">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C14">
+        <v>19200</v>
+      </c>
+      <c r="D14">
+        <v>67200</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>48000</v>
+      </c>
+      <c r="G14">
+        <f>(C14+F14)-D14</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>B14*F14</f>
+        <v>52800.000000000007</v>
+      </c>
+      <c r="I14">
+        <v>48000</v>
+      </c>
+      <c r="J14">
+        <f>(C14+I14)-D14</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>B14*I14</f>
+        <v>52800.000000000007</v>
+      </c>
+      <c r="N14" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="C15">
+        <v>30600</v>
+      </c>
+      <c r="D15">
+        <v>111600</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>52500</v>
+      </c>
+      <c r="G15">
+        <f>(C15+F15)-D15</f>
+        <v>-28500</v>
+      </c>
+      <c r="H15">
+        <f>B15*F15</f>
+        <v>94500</v>
+      </c>
+      <c r="I15">
+        <v>5400</v>
+      </c>
+      <c r="J15">
+        <f>(C15+I15)-D15</f>
+        <v>-75600</v>
+      </c>
+      <c r="K15">
+        <f>B15*I15</f>
+        <v>9720</v>
+      </c>
+      <c r="N15" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15">
+        <v>7500</v>
+      </c>
+      <c r="S15">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>45000</v>
+      </c>
+      <c r="D16">
+        <v>88200</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>52500</v>
+      </c>
+      <c r="G16">
+        <f>(C16+F16)-D16</f>
+        <v>9300</v>
+      </c>
+      <c r="H16">
+        <f>B16*F16</f>
+        <v>52500</v>
+      </c>
+      <c r="I16">
+        <v>5400</v>
+      </c>
+      <c r="J16">
+        <f>(C16+I16)-D16</f>
+        <v>-37800</v>
+      </c>
+      <c r="K16">
+        <f>B16*I16</f>
+        <v>5400</v>
+      </c>
+      <c r="N16" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>18000</v>
+      </c>
+      <c r="D17">
+        <v>30000</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="G17">
+        <f>(C17+F17)-D17</f>
+        <v>-3000</v>
+      </c>
+      <c r="H17">
+        <f>B17*F17</f>
+        <v>18000</v>
+      </c>
+      <c r="I17">
+        <v>45600</v>
+      </c>
+      <c r="J17">
+        <f>(C17+I17)-D17</f>
+        <v>33600</v>
+      </c>
+      <c r="K17">
+        <f>B17*I17</f>
+        <v>91200</v>
+      </c>
+      <c r="N17" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17">
+        <v>8000</v>
+      </c>
+      <c r="S17">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="G18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="13">
+        <f>SUM(H7:H17)</f>
+        <v>632160</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="6">
+        <f>SUM(K7:K17)</f>
+        <v>636679.19999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="B20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5">
+        <f>O41</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" ref="C22:F22" si="1">P41</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="5">
+        <f t="shared" ref="B23:B32" si="2">O42</f>
+        <v>240000</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" ref="C23:C32" si="3">P42</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" ref="D23:D32" si="4">Q42</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" ref="E23:E32" si="5">R42</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" ref="F23:F32" si="6">S42</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>133056</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="6"/>
+        <v>27000</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>64200</v>
+      </c>
+      <c r="K24">
+        <v>1800</v>
+      </c>
+      <c r="N24" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>25866</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>24</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>13920</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="3"/>
+        <v>64800</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>64800</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>6</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="5"/>
+        <v>48000</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>48000</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>7</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>24</v>
+      </c>
+      <c r="Q29">
+        <v>24</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="5"/>
+        <v>52500</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>5400</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>8</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="5"/>
+        <v>52500</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>5400</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>9</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>6</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="6"/>
+        <v>9000</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>45600</v>
+      </c>
+      <c r="N32" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>7</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="14:20">
+      <c r="N33" t="s">
+        <v>11</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>7</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="14:20">
+      <c r="N34" t="s">
+        <v>12</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="14:20">
+      <c r="N35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35">
+        <f>SUM(O24:O34)</f>
+        <v>24</v>
+      </c>
+      <c r="P35">
+        <f>SUM(P24:P34)</f>
+        <v>24</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" ref="Q35:S35" si="7">SUM(Q24:Q34)</f>
+        <v>24</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="14:20">
+      <c r="N36" s="1"/>
+    </row>
+    <row r="38" spans="14:20">
+      <c r="N38" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+    </row>
+    <row r="40" spans="14:20">
+      <c r="N40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="14:20">
+      <c r="N41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <f>O24*O7</f>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" ref="P41:S41" si="8">P24*P7</f>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <f>SUM(O41:S41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="14:20">
+      <c r="N42" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ref="O42:S51" si="9">O25*O8</f>
+        <v>240000</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <f t="shared" ref="T42:T51" si="10">SUM(O42:S42)</f>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="43" spans="14:20">
+      <c r="N43" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="9"/>
+        <v>27000</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="10"/>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="44" spans="14:20">
+      <c r="N44" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="14:20">
+      <c r="N45" t="s">
+        <v>6</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="14:20">
+      <c r="N46" t="s">
+        <v>7</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="9"/>
+        <v>64800</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="10"/>
+        <v>64800</v>
+      </c>
+    </row>
+    <row r="47" spans="14:20">
+      <c r="N47" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="14:20">
+      <c r="N48" t="s">
+        <v>9</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="9"/>
+        <v>48000</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="10"/>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="49" spans="14:20">
+      <c r="N49" t="s">
+        <v>10</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="9"/>
+        <v>52500</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="10"/>
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="50" spans="14:20">
+      <c r="N50" t="s">
+        <v>11</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="9"/>
+        <v>52500</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="10"/>
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="51" spans="14:20">
+      <c r="N51" t="s">
+        <v>12</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="9"/>
+        <v>9000</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="10"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="52" spans="14:20">
+      <c r="N52" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="N38:S38"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="F5:H5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G7:G17 J7:J17">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:T52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:19">
+      <c r="C3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="N4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="F5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>120600</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>T41</f>
+        <v>132000</v>
+      </c>
+      <c r="G7">
+        <f>(C7+F7)-D7</f>
+        <v>252600</v>
+      </c>
+      <c r="H7">
+        <f>B7*F7</f>
+        <v>132000</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>(C7+I7)</f>
+        <v>120600</v>
+      </c>
+      <c r="K7">
+        <f>B7*I7</f>
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>10000</v>
+      </c>
+      <c r="R7">
+        <v>8000</v>
+      </c>
+      <c r="S7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1.2</v>
+      </c>
+      <c r="C8">
+        <v>131328</v>
+      </c>
+      <c r="D8">
+        <v>67392</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F17" si="0">T42</f>
+        <v>100000</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G17" si="1">(C8+F8)-D8</f>
+        <v>163936</v>
+      </c>
+      <c r="H8">
+        <f>B8*F8</f>
+        <v>120000</v>
+      </c>
+      <c r="I8">
+        <v>157224</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:J17" si="2">(C8+I8)</f>
+        <v>288552</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K17" si="3">B8*I8</f>
+        <v>188668.79999999999</v>
+      </c>
+      <c r="N8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1.8</v>
+      </c>
+      <c r="C9">
+        <v>39000</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>39000</v>
+      </c>
+      <c r="H9">
+        <f>B9*F9</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>22375</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>61375</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>40275</v>
+      </c>
+      <c r="N9" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>7500</v>
+      </c>
+      <c r="S9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>118080</v>
+      </c>
+      <c r="D10">
+        <v>42720</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>75360</v>
+      </c>
+      <c r="H10">
+        <f>B10*F10</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>2665</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>120745</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>5330</v>
+      </c>
+      <c r="N10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>12768</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>12768</v>
+      </c>
+      <c r="H11">
+        <f>B11*F11</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>13920</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>26688</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>69600</v>
+      </c>
+      <c r="N11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>1.2</v>
+      </c>
+      <c r="C12">
+        <v>64800</v>
+      </c>
+      <c r="D12">
+        <v>18360</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>64800</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>111240</v>
+      </c>
+      <c r="H12">
+        <f>B12*F12</f>
+        <v>77760</v>
+      </c>
+      <c r="I12">
+        <v>45097</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>109897</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>54116.4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>1.8</v>
+      </c>
+      <c r="C13">
+        <v>78240</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>78240</v>
+      </c>
+      <c r="H13">
+        <f>B13*F13</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>5696</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>83936</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>10252.800000000001</v>
+      </c>
+      <c r="N13" t="s">
+        <v>8</v>
+      </c>
+      <c r="R13">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C14">
+        <v>27360</v>
+      </c>
+      <c r="D14">
+        <v>9600</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>32000</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>49760</v>
+      </c>
+      <c r="H14">
+        <f>B14*F14</f>
+        <v>35200</v>
+      </c>
+      <c r="I14">
+        <v>45910</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>73270</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>50501.000000000007</v>
+      </c>
+      <c r="N14" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="C15">
+        <v>154800</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>199800</v>
+      </c>
+      <c r="H15">
+        <f>B15*F15</f>
+        <v>81000</v>
+      </c>
+      <c r="I15">
+        <v>25200</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>180000</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>45360</v>
+      </c>
+      <c r="N15" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15">
+        <v>7500</v>
+      </c>
+      <c r="S15">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>180000</v>
+      </c>
+      <c r="D16">
+        <v>23400</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>201600</v>
+      </c>
+      <c r="H16">
+        <f>B16*F16</f>
+        <v>45000</v>
+      </c>
+      <c r="I16">
+        <v>5400</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>185400</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>5400</v>
+      </c>
+      <c r="N16" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>85800</v>
+      </c>
+      <c r="D17">
+        <v>12000</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>73800</v>
+      </c>
+      <c r="H17">
+        <f>B17*F17</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>18164</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>103964</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>36328</v>
+      </c>
+      <c r="N17" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17">
+        <v>8000</v>
+      </c>
+      <c r="S17">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="G18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="13">
+        <f>SUM(H7:H17)</f>
+        <v>490960</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="6">
+        <f>SUM(K7:K17)</f>
+        <v>505832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="B20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5">
+        <f>O41</f>
+        <v>100000</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" ref="C22:F32" si="4">P41</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="4"/>
+        <v>32000</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="5">
+        <f t="shared" ref="B23:B32" si="5">O42</f>
+        <v>100000</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>157224</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>20575</v>
+      </c>
+      <c r="K24">
+        <v>1800</v>
+      </c>
+      <c r="N24" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>10</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2665</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>10</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>13920</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="4"/>
+        <v>64800</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>45097</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>24</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>5696</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>6</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="4"/>
+        <v>32000</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>45910</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>7</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>24</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="4"/>
+        <v>45000</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>25200</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>8</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="4"/>
+        <v>45000</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>5400</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>9</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>4</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>18164</v>
+      </c>
+      <c r="N32" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>6</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="14:20">
+      <c r="N33" t="s">
+        <v>11</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>6</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="14:20">
+      <c r="N34" t="s">
+        <v>12</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="14:20">
+      <c r="N35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35">
+        <f>SUM(O24:O34)</f>
+        <v>20</v>
+      </c>
+      <c r="P35">
+        <f>SUM(P24:P34)</f>
+        <v>24</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" ref="Q35:S35" si="6">SUM(Q24:Q34)</f>
+        <v>24</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="14:20">
+      <c r="N36" s="1"/>
+    </row>
+    <row r="38" spans="14:20">
+      <c r="N38" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+    </row>
+    <row r="40" spans="14:20">
+      <c r="N40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="14:20">
+      <c r="N41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <f>O24*O7</f>
+        <v>100000</v>
+      </c>
+      <c r="P41">
+        <f t="shared" ref="P41:S41" si="7">P24*P7</f>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="7"/>
+        <v>32000</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <f>SUM(O41:S41)</f>
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="42" spans="14:20">
+      <c r="N42" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ref="O42:S51" si="8">O25*O8</f>
+        <v>100000</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <f t="shared" ref="T42:T51" si="9">SUM(O42:S42)</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="43" spans="14:20">
+      <c r="N43" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="14:20">
+      <c r="N44" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="14:20">
+      <c r="N45" t="s">
+        <v>6</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="14:20">
+      <c r="N46" t="s">
+        <v>7</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="8"/>
+        <v>64800</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="9"/>
+        <v>64800</v>
+      </c>
+    </row>
+    <row r="47" spans="14:20">
+      <c r="N47" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="14:20">
+      <c r="N48" t="s">
+        <v>9</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="8"/>
+        <v>32000</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="9"/>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="49" spans="14:20">
+      <c r="N49" t="s">
+        <v>10</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="8"/>
+        <v>45000</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="9"/>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="50" spans="14:20">
+      <c r="N50" t="s">
+        <v>11</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="8"/>
+        <v>45000</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="9"/>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="51" spans="14:20">
+      <c r="N51" t="s">
+        <v>12</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="14:20">
+      <c r="N52" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="N38:S38"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:K20"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G7:G17 J7:J17">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>